--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,18 +4,36 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="heatparm" sheetId="2" r:id="rId2"/>
+    <sheet name="RunBackParm" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="HeatLogFile2018-02-23-233256" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="1257" sourceFile="C:\Users\coolthing\Desktop\HeatLogFile2018-02-23-233256.txt" tab="0" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="229">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -147,18 +165,581 @@
   </si>
   <si>
     <t>5段转速参数</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>recoad</t>
+  </si>
+  <si>
+    <t>62s</t>
+  </si>
+  <si>
+    <t>0RPM</t>
+  </si>
+  <si>
+    <t>65s</t>
+  </si>
+  <si>
+    <t>67s</t>
+  </si>
+  <si>
+    <t>68s</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>20RPM</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>60RPM</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>80RPM</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>100RPM</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>120RPM</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>320RPM</t>
+  </si>
+  <si>
+    <t>9s</t>
+  </si>
+  <si>
+    <t>520RPM</t>
+  </si>
+  <si>
+    <t>11s</t>
+  </si>
+  <si>
+    <t>920RPM</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>960RPM</t>
+  </si>
+  <si>
+    <t>14s</t>
+  </si>
+  <si>
+    <t>980RPM</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>982RPM</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>984RPM</t>
+  </si>
+  <si>
+    <t>17s</t>
+  </si>
+  <si>
+    <t>986RPM</t>
+  </si>
+  <si>
+    <t>19s</t>
+  </si>
+  <si>
+    <t>990RPM</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>992RPM</t>
+  </si>
+  <si>
+    <t>23s</t>
+  </si>
+  <si>
+    <t>998RPM</t>
+  </si>
+  <si>
+    <t>25s</t>
+  </si>
+  <si>
+    <t>26s</t>
+  </si>
+  <si>
+    <t>29s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>32s</t>
+  </si>
+  <si>
+    <t>33s</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>35s</t>
+  </si>
+  <si>
+    <t>36s</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>38s</t>
+  </si>
+  <si>
+    <t>39s</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>42s</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>45s</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t>47s</t>
+  </si>
+  <si>
+    <t>48s</t>
+  </si>
+  <si>
+    <t>49s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>51s</t>
+  </si>
+  <si>
+    <t>1018RPM</t>
+  </si>
+  <si>
+    <t>52s</t>
+  </si>
+  <si>
+    <t>1038RPM</t>
+  </si>
+  <si>
+    <t>53s</t>
+  </si>
+  <si>
+    <t>1138RPM</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>1158RPM</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>1258RPM</t>
+  </si>
+  <si>
+    <t>56s</t>
+  </si>
+  <si>
+    <t>1278RPM</t>
+  </si>
+  <si>
+    <t>57s</t>
+  </si>
+  <si>
+    <t>1378RPM</t>
+  </si>
+  <si>
+    <t>58s</t>
+  </si>
+  <si>
+    <t>1398RPM</t>
+  </si>
+  <si>
+    <t>59s</t>
+  </si>
+  <si>
+    <t>1498RPM</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>61s</t>
+  </si>
+  <si>
+    <t>63s</t>
+  </si>
+  <si>
+    <t>64s</t>
+  </si>
+  <si>
+    <t>69s</t>
+  </si>
+  <si>
+    <t>70s</t>
+  </si>
+  <si>
+    <t>71s</t>
+  </si>
+  <si>
+    <t>72s</t>
+  </si>
+  <si>
+    <t>73s</t>
+  </si>
+  <si>
+    <t>74s</t>
+  </si>
+  <si>
+    <t>77s</t>
+  </si>
+  <si>
+    <t>79s</t>
+  </si>
+  <si>
+    <t>80s</t>
+  </si>
+  <si>
+    <t>81s</t>
+  </si>
+  <si>
+    <t>82s</t>
+  </si>
+  <si>
+    <t>83s</t>
+  </si>
+  <si>
+    <t>84s</t>
+  </si>
+  <si>
+    <t>86s</t>
+  </si>
+  <si>
+    <t>89s</t>
+  </si>
+  <si>
+    <t>91s</t>
+  </si>
+  <si>
+    <t>1518RPM</t>
+  </si>
+  <si>
+    <t>92s</t>
+  </si>
+  <si>
+    <t>1538RPM</t>
+  </si>
+  <si>
+    <t>93s</t>
+  </si>
+  <si>
+    <t>1638RPM</t>
+  </si>
+  <si>
+    <t>94s</t>
+  </si>
+  <si>
+    <t>1658RPM</t>
+  </si>
+  <si>
+    <t>95s</t>
+  </si>
+  <si>
+    <t>1678RPM</t>
+  </si>
+  <si>
+    <t>96s</t>
+  </si>
+  <si>
+    <t>1778RPM</t>
+  </si>
+  <si>
+    <t>98s</t>
+  </si>
+  <si>
+    <t>1898RPM</t>
+  </si>
+  <si>
+    <t>99s</t>
+  </si>
+  <si>
+    <t>1918RPM</t>
+  </si>
+  <si>
+    <t>100s</t>
+  </si>
+  <si>
+    <t>1938RPM</t>
+  </si>
+  <si>
+    <t>101s</t>
+  </si>
+  <si>
+    <t>2038RPM</t>
+  </si>
+  <si>
+    <t>102s</t>
+  </si>
+  <si>
+    <t>2058RPM</t>
+  </si>
+  <si>
+    <t>103s</t>
+  </si>
+  <si>
+    <t>2158RPM</t>
+  </si>
+  <si>
+    <t>104s</t>
+  </si>
+  <si>
+    <t>2178RPM</t>
+  </si>
+  <si>
+    <t>105s</t>
+  </si>
+  <si>
+    <t>2198RPM</t>
+  </si>
+  <si>
+    <t>106s</t>
+  </si>
+  <si>
+    <t>2298RPM</t>
+  </si>
+  <si>
+    <t>107s</t>
+  </si>
+  <si>
+    <t>2318RPM</t>
+  </si>
+  <si>
+    <t>108s</t>
+  </si>
+  <si>
+    <t>2418RPM</t>
+  </si>
+  <si>
+    <t>109s</t>
+  </si>
+  <si>
+    <t>2438RPM</t>
+  </si>
+  <si>
+    <t>110s</t>
+  </si>
+  <si>
+    <t>2458RPM</t>
+  </si>
+  <si>
+    <t>111s</t>
+  </si>
+  <si>
+    <t>2558RPM</t>
+  </si>
+  <si>
+    <t>112s</t>
+  </si>
+  <si>
+    <t>2578RPM</t>
+  </si>
+  <si>
+    <t>113s</t>
+  </si>
+  <si>
+    <t>2678RPM</t>
+  </si>
+  <si>
+    <t>114s</t>
+  </si>
+  <si>
+    <t>2698RPM</t>
+  </si>
+  <si>
+    <t>115s</t>
+  </si>
+  <si>
+    <t>2718RPM</t>
+  </si>
+  <si>
+    <t>116s</t>
+  </si>
+  <si>
+    <t>2818RPM</t>
+  </si>
+  <si>
+    <t>117s</t>
+  </si>
+  <si>
+    <t>2838RPM</t>
+  </si>
+  <si>
+    <t>118s</t>
+  </si>
+  <si>
+    <t>2938RPM</t>
+  </si>
+  <si>
+    <t>119s</t>
+  </si>
+  <si>
+    <t>2958RPM</t>
+  </si>
+  <si>
+    <t>120s</t>
+  </si>
+  <si>
+    <t>2978RPM</t>
+  </si>
+  <si>
+    <t>121s</t>
+  </si>
+  <si>
+    <t>2998RPM</t>
+  </si>
+  <si>
+    <t>122s</t>
+  </si>
+  <si>
+    <t>123s</t>
+  </si>
+  <si>
+    <t>124s</t>
+  </si>
+  <si>
+    <t>125s</t>
+  </si>
+  <si>
+    <t>126s</t>
+  </si>
+  <si>
+    <t>127s</t>
+  </si>
+  <si>
+    <t>128s</t>
+  </si>
+  <si>
+    <t>129s</t>
+  </si>
+  <si>
+    <t>130s</t>
+  </si>
+  <si>
+    <t>131s</t>
+  </si>
+  <si>
+    <t>132s</t>
+  </si>
+  <si>
+    <t>133s</t>
+  </si>
+  <si>
+    <t>134s</t>
+  </si>
+  <si>
+    <t>135s</t>
+  </si>
+  <si>
+    <t>136s</t>
+  </si>
+  <si>
+    <t>137s</t>
+  </si>
+  <si>
+    <t>138s</t>
+  </si>
+  <si>
+    <t>139s</t>
+  </si>
+  <si>
+    <t>140s</t>
+  </si>
+  <si>
+    <t>141s</t>
+  </si>
+  <si>
+    <t>142s</t>
+  </si>
+  <si>
+    <t>143s</t>
+  </si>
+  <si>
+    <t>144s</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>recond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,11 +763,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -201,8 +787,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="HeatLogFile2018-02-23-233256" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +1084,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -537,6 +1127,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -545,15 +1136,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
@@ -898,7 +1489,3033 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:K132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LEFT(A6,LEN(A6)-LEN("s"))</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G70" si="0">LEFT(A7,LEN(A7)-LEN("s"))</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="str">
+        <f>LEFT(A8,LEN(A8)-LEN("s"))</f>
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <f>LEFT(B8,LEN(B8)-LEN("RPM"))</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
+        <f>LEFT(B9,LEN(B9)-LEN("RPM"))</f>
+        <v>60</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <f>LEFT(B10,LEN(B10)-LEN("RPM"))</f>
+        <v>80</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H11" t="str">
+        <f>LEFT(B11,LEN(B11)-LEN("RPM"))</f>
+        <v>100</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12" t="str">
+        <f>LEFT(B12,LEN(B12)-LEN("RPM"))</f>
+        <v>120</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
+        <f>LEFT(B13,LEN(B13)-LEN("RPM"))</f>
+        <v>320</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H14" t="str">
+        <f>LEFT(B14,LEN(B14)-LEN("RPM"))</f>
+        <v>520</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>9</v>
+      </c>
+      <c r="K14" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H15" t="str">
+        <f>LEFT(B15,LEN(B15)-LEN("RPM"))</f>
+        <v>920</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="str">
+        <f>LEFT(B16,LEN(B16)-LEN("RPM"))</f>
+        <v>960</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="str">
+        <f>LEFT(B17,LEN(B17)-LEN("RPM"))</f>
+        <v>980</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="str">
+        <f>LEFT(B18,LEN(B18)-LEN("RPM"))</f>
+        <v>982</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="str">
+        <f>LEFT(B19,LEN(B19)-LEN("RPM"))</f>
+        <v>984</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="str">
+        <f>LEFT(B20,LEN(B20)-LEN("RPM"))</f>
+        <v>986</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H21" t="str">
+        <f>LEFT(B21,LEN(B21)-LEN("RPM"))</f>
+        <v>990</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H22" t="str">
+        <f>LEFT(B22,LEN(B22)-LEN("RPM"))</f>
+        <v>992</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>20</v>
+      </c>
+      <c r="K22" s="3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H23" t="str">
+        <f>LEFT(B23,LEN(B23)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>23</v>
+      </c>
+      <c r="K23" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LEFT(B24,LEN(B24)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>25</v>
+      </c>
+      <c r="K24" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H25" t="str">
+        <f>LEFT(B25,LEN(B25)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>26</v>
+      </c>
+      <c r="K25" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H26" t="str">
+        <f>LEFT(B26,LEN(B26)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>26</v>
+      </c>
+      <c r="K26" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LEFT(B27,LEN(B27)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>29</v>
+      </c>
+      <c r="K27" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H28" t="str">
+        <f>LEFT(B28,LEN(B28)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>30</v>
+      </c>
+      <c r="K28" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H29" t="str">
+        <f>LEFT(B29,LEN(B29)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>32</v>
+      </c>
+      <c r="K29" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LEFT(B30,LEN(B30)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>33</v>
+      </c>
+      <c r="K30" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H31" t="str">
+        <f>LEFT(B31,LEN(B31)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>34</v>
+      </c>
+      <c r="K31" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H32" t="str">
+        <f>LEFT(B32,LEN(B32)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>35</v>
+      </c>
+      <c r="K32" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H33" t="str">
+        <f>LEFT(B33,LEN(B33)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>36</v>
+      </c>
+      <c r="K33" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H34" t="str">
+        <f>LEFT(B34,LEN(B34)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>37</v>
+      </c>
+      <c r="K34" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H35" t="str">
+        <f>LEFT(B35,LEN(B35)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>38</v>
+      </c>
+      <c r="K35" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H36" t="str">
+        <f>LEFT(B36,LEN(B36)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>39</v>
+      </c>
+      <c r="K36" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H37" t="str">
+        <f>LEFT(B37,LEN(B37)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>40</v>
+      </c>
+      <c r="K37" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H38" t="str">
+        <f>LEFT(B38,LEN(B38)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>41</v>
+      </c>
+      <c r="K38" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H39" t="str">
+        <f>LEFT(B39,LEN(B39)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <v>42</v>
+      </c>
+      <c r="K39" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H40" t="str">
+        <f>LEFT(B40,LEN(B40)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <v>43</v>
+      </c>
+      <c r="K40" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H41" t="str">
+        <f>LEFT(B41,LEN(B41)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <v>44</v>
+      </c>
+      <c r="K41" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H42" t="str">
+        <f>LEFT(B42,LEN(B42)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>45</v>
+      </c>
+      <c r="K42" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H43" t="str">
+        <f>LEFT(B43,LEN(B43)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <v>46</v>
+      </c>
+      <c r="K43" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H44" t="str">
+        <f>LEFT(B44,LEN(B44)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>47</v>
+      </c>
+      <c r="K44" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H45" t="str">
+        <f>LEFT(B45,LEN(B45)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <v>48</v>
+      </c>
+      <c r="K45" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H46" t="str">
+        <f>LEFT(B46,LEN(B46)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>49</v>
+      </c>
+      <c r="K46" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H47" t="str">
+        <f>LEFT(B47,LEN(B47)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
+        <v>50</v>
+      </c>
+      <c r="K47" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H48" t="str">
+        <f>LEFT(B48,LEN(B48)-LEN("RPM"))</f>
+        <v>1018</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
+        <v>51</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H49" t="str">
+        <f>LEFT(B49,LEN(B49)-LEN("RPM"))</f>
+        <v>1038</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
+        <v>52</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H50" t="str">
+        <f>LEFT(B50,LEN(B50)-LEN("RPM"))</f>
+        <v>1138</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>53</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H51" t="str">
+        <f>LEFT(B51,LEN(B51)-LEN("RPM"))</f>
+        <v>1158</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <v>54</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H52" t="str">
+        <f>LEFT(B52,LEN(B52)-LEN("RPM"))</f>
+        <v>1258</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>55</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H53" t="str">
+        <f>LEFT(B53,LEN(B53)-LEN("RPM"))</f>
+        <v>1278</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
+        <v>56</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H54" t="str">
+        <f>LEFT(B54,LEN(B54)-LEN("RPM"))</f>
+        <v>1378</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>57</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H55" t="str">
+        <f>LEFT(B55,LEN(B55)-LEN("RPM"))</f>
+        <v>1398</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
+        <v>58</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H56" t="str">
+        <f>LEFT(B56,LEN(B56)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
+        <v>59</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H57" t="str">
+        <f>LEFT(B57,LEN(B57)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
+        <v>60</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H58" t="str">
+        <f>LEFT(B58,LEN(B58)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
+        <v>61</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H59" t="str">
+        <f>LEFT(B59,LEN(B59)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>62</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H60" t="str">
+        <f>LEFT(B60,LEN(B60)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
+        <v>63</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H61" t="str">
+        <f>LEFT(B61,LEN(B61)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
+        <v>64</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H62" t="str">
+        <f>LEFT(B62,LEN(B62)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
+        <v>65</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H63" t="str">
+        <f>LEFT(B63,LEN(B63)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>67</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H64" t="str">
+        <f>LEFT(B64,LEN(B64)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>68</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H65" t="str">
+        <f>LEFT(B65,LEN(B65)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <v>69</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H66" t="str">
+        <f>LEFT(B66,LEN(B66)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
+        <v>70</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H67" t="str">
+        <f>LEFT(B67,LEN(B67)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
+        <v>71</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H68" t="str">
+        <f>LEFT(B68,LEN(B68)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
+        <v>72</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H69" t="str">
+        <f>LEFT(B69,LEN(B69)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
+        <v>73</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="H70" t="str">
+        <f>LEFT(B70,LEN(B70)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
+        <v>74</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" ref="G71:G132" si="1">LEFT(A71,LEN(A71)-LEN("s"))</f>
+        <v>77</v>
+      </c>
+      <c r="H71" t="str">
+        <f>LEFT(B71,LEN(B71)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
+        <v>77</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H72" t="str">
+        <f>LEFT(B72,LEN(B72)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>79</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H73" t="str">
+        <f>LEFT(B73,LEN(B73)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>80</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H74" t="str">
+        <f>LEFT(B74,LEN(B74)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <v>81</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="H75" t="str">
+        <f>LEFT(B75,LEN(B75)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <v>82</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="H76" t="str">
+        <f>LEFT(B76,LEN(B76)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>83</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H77" t="str">
+        <f>LEFT(B77,LEN(B77)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>84</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="H78" t="str">
+        <f>LEFT(B78,LEN(B78)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>86</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="H79" t="str">
+        <f>LEFT(B79,LEN(B79)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>89</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="H80" t="str">
+        <f>LEFT(B80,LEN(B80)-LEN("RPM"))</f>
+        <v>1518</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>91</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="H81" t="str">
+        <f>LEFT(B81,LEN(B81)-LEN("RPM"))</f>
+        <v>1538</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>92</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="H82" t="str">
+        <f>LEFT(B82,LEN(B82)-LEN("RPM"))</f>
+        <v>1638</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>93</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="H83" t="str">
+        <f>LEFT(B83,LEN(B83)-LEN("RPM"))</f>
+        <v>1658</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>94</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H84" t="str">
+        <f>LEFT(B84,LEN(B84)-LEN("RPM"))</f>
+        <v>1678</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <v>95</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H85" t="str">
+        <f>LEFT(B85,LEN(B85)-LEN("RPM"))</f>
+        <v>1778</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <v>96</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="H86" t="str">
+        <f>LEFT(B86,LEN(B86)-LEN("RPM"))</f>
+        <v>1898</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>98</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H87" t="str">
+        <f>LEFT(B87,LEN(B87)-LEN("RPM"))</f>
+        <v>1918</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>99</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H88" t="str">
+        <f>LEFT(B88,LEN(B88)-LEN("RPM"))</f>
+        <v>1938</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <v>100</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="H89" t="str">
+        <f>LEFT(B89,LEN(B89)-LEN("RPM"))</f>
+        <v>2038</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <v>101</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H90" t="str">
+        <f>LEFT(B90,LEN(B90)-LEN("RPM"))</f>
+        <v>2058</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <v>102</v>
+      </c>
+      <c r="K90" s="3">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="H91" t="str">
+        <f>LEFT(B91,LEN(B91)-LEN("RPM"))</f>
+        <v>2158</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <v>103</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H92" t="str">
+        <f>LEFT(B92,LEN(B92)-LEN("RPM"))</f>
+        <v>2178</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <v>104</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="H93" t="str">
+        <f>LEFT(B93,LEN(B93)-LEN("RPM"))</f>
+        <v>2198</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>105</v>
+      </c>
+      <c r="K93" s="3">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" t="s">
+        <v>173</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H94" t="str">
+        <f>LEFT(B94,LEN(B94)-LEN("RPM"))</f>
+        <v>2298</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <v>106</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="H95" t="str">
+        <f>LEFT(B95,LEN(B95)-LEN("RPM"))</f>
+        <v>2318</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <v>107</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="H96" t="str">
+        <f>LEFT(B96,LEN(B96)-LEN("RPM"))</f>
+        <v>2418</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <v>108</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="H97" t="str">
+        <f>LEFT(B97,LEN(B97)-LEN("RPM"))</f>
+        <v>2438</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <v>109</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
+        <v>181</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="H98" t="str">
+        <f>LEFT(B98,LEN(B98)-LEN("RPM"))</f>
+        <v>2458</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <v>110</v>
+      </c>
+      <c r="K98" s="3">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
+        <v>183</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="H99" t="str">
+        <f>LEFT(B99,LEN(B99)-LEN("RPM"))</f>
+        <v>2558</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <v>111</v>
+      </c>
+      <c r="K99" s="3">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="H100" t="str">
+        <f>LEFT(B100,LEN(B100)-LEN("RPM"))</f>
+        <v>2578</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
+        <v>112</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="H101" t="str">
+        <f>LEFT(B101,LEN(B101)-LEN("RPM"))</f>
+        <v>2678</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
+        <v>113</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="H102" t="str">
+        <f>LEFT(B102,LEN(B102)-LEN("RPM"))</f>
+        <v>2698</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
+        <v>114</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="H103" t="str">
+        <f>LEFT(B103,LEN(B103)-LEN("RPM"))</f>
+        <v>2718</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
+        <v>115</v>
+      </c>
+      <c r="K103" s="3">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>193</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="H104" t="str">
+        <f>LEFT(B104,LEN(B104)-LEN("RPM"))</f>
+        <v>2818</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>116</v>
+      </c>
+      <c r="K104" s="3">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="H105" t="str">
+        <f>LEFT(B105,LEN(B105)-LEN("RPM"))</f>
+        <v>2838</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
+        <v>117</v>
+      </c>
+      <c r="K105" s="3">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H106" t="str">
+        <f>LEFT(B106,LEN(B106)-LEN("RPM"))</f>
+        <v>2938</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>118</v>
+      </c>
+      <c r="K106" s="3">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="H107" t="str">
+        <f>LEFT(B107,LEN(B107)-LEN("RPM"))</f>
+        <v>2958</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
+        <v>119</v>
+      </c>
+      <c r="K107" s="3">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H108" t="str">
+        <f>LEFT(B108,LEN(B108)-LEN("RPM"))</f>
+        <v>2978</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <v>120</v>
+      </c>
+      <c r="K108" s="3">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="H109" t="str">
+        <f>LEFT(B109,LEN(B109)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3">
+        <v>121</v>
+      </c>
+      <c r="K109" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="H110" t="str">
+        <f>LEFT(B110,LEN(B110)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>122</v>
+      </c>
+      <c r="K110" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="H111" t="str">
+        <f>LEFT(B111,LEN(B111)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>123</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="H112" t="str">
+        <f>LEFT(B112,LEN(B112)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3">
+        <v>124</v>
+      </c>
+      <c r="K112" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H113" t="str">
+        <f>LEFT(B113,LEN(B113)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3">
+        <v>125</v>
+      </c>
+      <c r="K113" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="H114" t="str">
+        <f>LEFT(B114,LEN(B114)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3">
+        <v>126</v>
+      </c>
+      <c r="K114" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="H115" t="str">
+        <f>LEFT(B115,LEN(B115)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <v>127</v>
+      </c>
+      <c r="K115" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="H116" t="str">
+        <f>LEFT(B116,LEN(B116)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
+        <v>128</v>
+      </c>
+      <c r="K116" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="H117" t="str">
+        <f>LEFT(B117,LEN(B117)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3">
+        <v>129</v>
+      </c>
+      <c r="K117" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="H118" t="str">
+        <f>LEFT(B118,LEN(B118)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>130</v>
+      </c>
+      <c r="K118" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="H119" t="str">
+        <f>LEFT(B119,LEN(B119)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>131</v>
+      </c>
+      <c r="K119" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="H120" t="str">
+        <f>LEFT(B120,LEN(B120)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3">
+        <v>132</v>
+      </c>
+      <c r="K120" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="H121" t="str">
+        <f>LEFT(B121,LEN(B121)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3">
+        <v>133</v>
+      </c>
+      <c r="K121" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>203</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="H122" t="str">
+        <f>LEFT(B122,LEN(B122)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3">
+        <v>134</v>
+      </c>
+      <c r="K122" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="H123" t="str">
+        <f>LEFT(B123,LEN(B123)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3">
+        <v>135</v>
+      </c>
+      <c r="K123" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="H124" t="str">
+        <f>LEFT(B124,LEN(B124)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3">
+        <v>136</v>
+      </c>
+      <c r="K124" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>203</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="H125" t="str">
+        <f>LEFT(B125,LEN(B125)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3">
+        <v>137</v>
+      </c>
+      <c r="K125" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="H126" t="str">
+        <f>LEFT(B126,LEN(B126)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3">
+        <v>138</v>
+      </c>
+      <c r="K126" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="H127" t="str">
+        <f>LEFT(B127,LEN(B127)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>139</v>
+      </c>
+      <c r="K127" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="H128" t="str">
+        <f>LEFT(B128,LEN(B128)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3">
+        <v>140</v>
+      </c>
+      <c r="K128" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" t="s">
+        <v>203</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="H129" t="str">
+        <f>LEFT(B129,LEN(B129)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3">
+        <v>141</v>
+      </c>
+      <c r="K129" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="H130" t="str">
+        <f>LEFT(B130,LEN(B130)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3">
+        <v>142</v>
+      </c>
+      <c r="K130" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="H131" t="str">
+        <f>LEFT(B131,LEN(B131)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3">
+        <v>143</v>
+      </c>
+      <c r="K131" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" t="s">
+        <v>203</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="H132" t="str">
+        <f>LEFT(B132,LEN(B132)-LEN("RPM"))</f>
+        <v>2998</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
+        <v>144</v>
+      </c>
+      <c r="K132" s="3">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="243">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -721,23 +721,65 @@
   </si>
   <si>
     <t>recond</t>
+  </si>
+  <si>
+    <t>HEAT_YB_EN_Time</t>
+  </si>
+  <si>
+    <t>HEAT_YB_ADJ_Time</t>
+  </si>
+  <si>
+    <t>油泵调节时间</t>
+  </si>
+  <si>
+    <t>HEAT_YB_StaticHz</t>
+  </si>
+  <si>
+    <t>每秒次数(Hz)</t>
+  </si>
+  <si>
+    <t>固定泵油的频率</t>
+  </si>
+  <si>
+    <t>HEAT_YB_DynamicParm</t>
+  </si>
+  <si>
+    <t>泵油比参数</t>
+  </si>
+  <si>
+    <t>追踪风扇转速，调整泵油频率，计算公式为：(风扇转速-100)/HEAT_YB_DynamicParm</t>
+  </si>
+  <si>
+    <t>HEAT_KT_StartTime</t>
+  </si>
+  <si>
+    <t>HEAT_KT_JudgeTime</t>
+  </si>
+  <si>
+    <t>油泵使能时间，也作为点火时关机是否走关机流程的判断</t>
+  </si>
+  <si>
+    <t>判断点火是否成功的开始点</t>
+  </si>
+  <si>
+    <t>判断点火是否成功的判决点，根据壳体温度判决</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -765,14 +807,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -792,7 +834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1084,9 +1126,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1094,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1102,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1110,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1118,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1134,22 +1176,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1183,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1217,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1234,7 +1276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1251,7 +1293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1268,7 +1310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1285,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1302,7 +1344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1319,7 +1361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1336,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1353,7 +1395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1370,7 +1412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1387,7 +1429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1404,7 +1446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1421,7 +1463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1438,7 +1480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1455,7 +1497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1472,20 +1514,146 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
       <c r="C21">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1499,27 +1667,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1535,7 +1703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1555,7 +1723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1567,7 +1735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1579,18 +1747,18 @@
         <v>2</v>
       </c>
       <c r="H8" t="str">
-        <f>LEFT(B8,LEN(B8)-LEN("RPM"))</f>
+        <f t="shared" ref="H8:H39" si="1">LEFT(B8,LEN(B8)-LEN("RPM"))</f>
         <v>20</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1602,18 +1770,18 @@
         <v>4</v>
       </c>
       <c r="H9" t="str">
-        <f>LEFT(B9,LEN(B9)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1625,18 +1793,18 @@
         <v>5</v>
       </c>
       <c r="H10" t="str">
-        <f>LEFT(B10,LEN(B10)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1648,18 +1816,18 @@
         <v>6</v>
       </c>
       <c r="H11" t="str">
-        <f>LEFT(B11,LEN(B11)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
         <v>6</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1671,18 +1839,18 @@
         <v>7</v>
       </c>
       <c r="H12" t="str">
-        <f>LEFT(B12,LEN(B12)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
         <v>7</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1694,18 +1862,18 @@
         <v>8</v>
       </c>
       <c r="H13" t="str">
-        <f>LEFT(B13,LEN(B13)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
         <v>8</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1717,18 +1885,18 @@
         <v>9</v>
       </c>
       <c r="H14" t="str">
-        <f>LEFT(B14,LEN(B14)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
         <v>9</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1740,18 +1908,18 @@
         <v>11</v>
       </c>
       <c r="H15" t="str">
-        <f>LEFT(B15,LEN(B15)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1763,18 +1931,18 @@
         <v>13</v>
       </c>
       <c r="H16" t="str">
-        <f>LEFT(B16,LEN(B16)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
         <v>13</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1786,18 +1954,18 @@
         <v>14</v>
       </c>
       <c r="H17" t="str">
-        <f>LEFT(B17,LEN(B17)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>14</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1809,18 +1977,18 @@
         <v>15</v>
       </c>
       <c r="H18" t="str">
-        <f>LEFT(B18,LEN(B18)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>982</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
         <v>15</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1832,18 +2000,18 @@
         <v>16</v>
       </c>
       <c r="H19" t="str">
-        <f>LEFT(B19,LEN(B19)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>984</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>16</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1855,18 +2023,18 @@
         <v>17</v>
       </c>
       <c r="H20" t="str">
-        <f>LEFT(B20,LEN(B20)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>986</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
         <v>17</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1878,18 +2046,18 @@
         <v>19</v>
       </c>
       <c r="H21" t="str">
-        <f>LEFT(B21,LEN(B21)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>990</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
         <v>19</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1901,18 +2069,18 @@
         <v>20</v>
       </c>
       <c r="H22" t="str">
-        <f>LEFT(B22,LEN(B22)-LEN("RPM"))</f>
+        <f t="shared" si="1"/>
         <v>992</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
         <v>20</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1924,18 +2092,18 @@
         <v>23</v>
       </c>
       <c r="H23" t="str">
-        <f>LEFT(B23,LEN(B23)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
         <v>23</v>
       </c>
-      <c r="K23" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1947,18 +2115,18 @@
         <v>25</v>
       </c>
       <c r="H24" t="str">
-        <f>LEFT(B24,LEN(B24)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
         <v>25</v>
       </c>
-      <c r="K24" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1970,18 +2138,18 @@
         <v>26</v>
       </c>
       <c r="H25" t="str">
-        <f>LEFT(B25,LEN(B25)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
         <v>26</v>
       </c>
-      <c r="K25" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -1993,18 +2161,18 @@
         <v>26</v>
       </c>
       <c r="H26" t="str">
-        <f>LEFT(B26,LEN(B26)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
         <v>26</v>
       </c>
-      <c r="K26" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2016,18 +2184,18 @@
         <v>29</v>
       </c>
       <c r="H27" t="str">
-        <f>LEFT(B27,LEN(B27)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
         <v>29</v>
       </c>
-      <c r="K27" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2039,18 +2207,18 @@
         <v>30</v>
       </c>
       <c r="H28" t="str">
-        <f>LEFT(B28,LEN(B28)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
         <v>30</v>
       </c>
-      <c r="K28" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2062,18 +2230,18 @@
         <v>32</v>
       </c>
       <c r="H29" t="str">
-        <f>LEFT(B29,LEN(B29)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
         <v>32</v>
       </c>
-      <c r="K29" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2085,18 +2253,18 @@
         <v>33</v>
       </c>
       <c r="H30" t="str">
-        <f>LEFT(B30,LEN(B30)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
         <v>33</v>
       </c>
-      <c r="K30" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2108,18 +2276,18 @@
         <v>34</v>
       </c>
       <c r="H31" t="str">
-        <f>LEFT(B31,LEN(B31)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
         <v>34</v>
       </c>
-      <c r="K31" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2131,18 +2299,18 @@
         <v>35</v>
       </c>
       <c r="H32" t="str">
-        <f>LEFT(B32,LEN(B32)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
         <v>35</v>
       </c>
-      <c r="K32" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2154,18 +2322,18 @@
         <v>36</v>
       </c>
       <c r="H33" t="str">
-        <f>LEFT(B33,LEN(B33)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
         <v>36</v>
       </c>
-      <c r="K33" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2177,18 +2345,18 @@
         <v>37</v>
       </c>
       <c r="H34" t="str">
-        <f>LEFT(B34,LEN(B34)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
         <v>37</v>
       </c>
-      <c r="K34" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2200,18 +2368,18 @@
         <v>38</v>
       </c>
       <c r="H35" t="str">
-        <f>LEFT(B35,LEN(B35)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
         <v>38</v>
       </c>
-      <c r="K35" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2223,18 +2391,18 @@
         <v>39</v>
       </c>
       <c r="H36" t="str">
-        <f>LEFT(B36,LEN(B36)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
         <v>39</v>
       </c>
-      <c r="K36" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2246,18 +2414,18 @@
         <v>40</v>
       </c>
       <c r="H37" t="str">
-        <f>LEFT(B37,LEN(B37)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
         <v>40</v>
       </c>
-      <c r="K37" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2269,18 +2437,18 @@
         <v>41</v>
       </c>
       <c r="H38" t="str">
-        <f>LEFT(B38,LEN(B38)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
         <v>41</v>
       </c>
-      <c r="K38" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2292,18 +2460,18 @@
         <v>42</v>
       </c>
       <c r="H39" t="str">
-        <f>LEFT(B39,LEN(B39)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
         <v>42</v>
       </c>
-      <c r="K39" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2315,18 +2483,18 @@
         <v>43</v>
       </c>
       <c r="H40" t="str">
-        <f>LEFT(B40,LEN(B40)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3">
+        <f t="shared" ref="H40:H71" si="2">LEFT(B40,LEN(B40)-LEN("RPM"))</f>
+        <v>998</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
         <v>43</v>
       </c>
-      <c r="K40" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2338,18 +2506,18 @@
         <v>44</v>
       </c>
       <c r="H41" t="str">
-        <f>LEFT(B41,LEN(B41)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
         <v>44</v>
       </c>
-      <c r="K41" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2361,18 +2529,18 @@
         <v>45</v>
       </c>
       <c r="H42" t="str">
-        <f>LEFT(B42,LEN(B42)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
         <v>45</v>
       </c>
-      <c r="K42" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2384,18 +2552,18 @@
         <v>46</v>
       </c>
       <c r="H43" t="str">
-        <f>LEFT(B43,LEN(B43)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
         <v>46</v>
       </c>
-      <c r="K43" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -2407,18 +2575,18 @@
         <v>47</v>
       </c>
       <c r="H44" t="str">
-        <f>LEFT(B44,LEN(B44)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
         <v>47</v>
       </c>
-      <c r="K44" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2430,18 +2598,18 @@
         <v>48</v>
       </c>
       <c r="H45" t="str">
-        <f>LEFT(B45,LEN(B45)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
         <v>48</v>
       </c>
-      <c r="K45" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2453,18 +2621,18 @@
         <v>49</v>
       </c>
       <c r="H46" t="str">
-        <f>LEFT(B46,LEN(B46)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
         <v>49</v>
       </c>
-      <c r="K46" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2476,18 +2644,18 @@
         <v>50</v>
       </c>
       <c r="H47" t="str">
-        <f>LEFT(B47,LEN(B47)-LEN("RPM"))</f>
-        <v>998</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
         <v>50</v>
       </c>
-      <c r="K47" s="3">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2499,18 +2667,18 @@
         <v>51</v>
       </c>
       <c r="H48" t="str">
-        <f>LEFT(B48,LEN(B48)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1018</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
         <v>51</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2522,18 +2690,18 @@
         <v>52</v>
       </c>
       <c r="H49" t="str">
-        <f>LEFT(B49,LEN(B49)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1038</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
         <v>52</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2545,18 +2713,18 @@
         <v>53</v>
       </c>
       <c r="H50" t="str">
-        <f>LEFT(B50,LEN(B50)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1138</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
         <v>53</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2568,18 +2736,18 @@
         <v>54</v>
       </c>
       <c r="H51" t="str">
-        <f>LEFT(B51,LEN(B51)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1158</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
         <v>54</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2591,18 +2759,18 @@
         <v>55</v>
       </c>
       <c r="H52" t="str">
-        <f>LEFT(B52,LEN(B52)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1258</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
         <v>55</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -2614,18 +2782,18 @@
         <v>56</v>
       </c>
       <c r="H53" t="str">
-        <f>LEFT(B53,LEN(B53)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1278</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
         <v>56</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -2637,18 +2805,18 @@
         <v>57</v>
       </c>
       <c r="H54" t="str">
-        <f>LEFT(B54,LEN(B54)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1378</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
         <v>57</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -2660,18 +2828,18 @@
         <v>58</v>
       </c>
       <c r="H55" t="str">
-        <f>LEFT(B55,LEN(B55)-LEN("RPM"))</f>
+        <f t="shared" si="2"/>
         <v>1398</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
         <v>58</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -2683,18 +2851,18 @@
         <v>59</v>
       </c>
       <c r="H56" t="str">
-        <f>LEFT(B56,LEN(B56)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
         <v>59</v>
       </c>
-      <c r="K56" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -2706,18 +2874,18 @@
         <v>60</v>
       </c>
       <c r="H57" t="str">
-        <f>LEFT(B57,LEN(B57)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
         <v>60</v>
       </c>
-      <c r="K57" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -2729,18 +2897,18 @@
         <v>61</v>
       </c>
       <c r="H58" t="str">
-        <f>LEFT(B58,LEN(B58)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
         <v>61</v>
       </c>
-      <c r="K58" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -2752,18 +2920,18 @@
         <v>62</v>
       </c>
       <c r="H59" t="str">
-        <f>LEFT(B59,LEN(B59)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
         <v>62</v>
       </c>
-      <c r="K59" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -2775,18 +2943,18 @@
         <v>63</v>
       </c>
       <c r="H60" t="str">
-        <f>LEFT(B60,LEN(B60)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
         <v>63</v>
       </c>
-      <c r="K60" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2798,18 +2966,18 @@
         <v>64</v>
       </c>
       <c r="H61" t="str">
-        <f>LEFT(B61,LEN(B61)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
         <v>64</v>
       </c>
-      <c r="K61" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2821,18 +2989,18 @@
         <v>65</v>
       </c>
       <c r="H62" t="str">
-        <f>LEFT(B62,LEN(B62)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
         <v>65</v>
       </c>
-      <c r="K62" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2844,18 +3012,18 @@
         <v>67</v>
       </c>
       <c r="H63" t="str">
-        <f>LEFT(B63,LEN(B63)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
         <v>67</v>
       </c>
-      <c r="K63" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2867,18 +3035,18 @@
         <v>68</v>
       </c>
       <c r="H64" t="str">
-        <f>LEFT(B64,LEN(B64)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2">
         <v>68</v>
       </c>
-      <c r="K64" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2890,18 +3058,18 @@
         <v>69</v>
       </c>
       <c r="H65" t="str">
-        <f>LEFT(B65,LEN(B65)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2">
         <v>69</v>
       </c>
-      <c r="K65" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -2913,18 +3081,18 @@
         <v>70</v>
       </c>
       <c r="H66" t="str">
-        <f>LEFT(B66,LEN(B66)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2">
         <v>70</v>
       </c>
-      <c r="K66" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2936,18 +3104,18 @@
         <v>71</v>
       </c>
       <c r="H67" t="str">
-        <f>LEFT(B67,LEN(B67)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2">
         <v>71</v>
       </c>
-      <c r="K67" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2959,18 +3127,18 @@
         <v>72</v>
       </c>
       <c r="H68" t="str">
-        <f>LEFT(B68,LEN(B68)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2">
         <v>72</v>
       </c>
-      <c r="K68" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -2982,18 +3150,18 @@
         <v>73</v>
       </c>
       <c r="H69" t="str">
-        <f>LEFT(B69,LEN(B69)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2">
         <v>73</v>
       </c>
-      <c r="K69" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -3005,18 +3173,18 @@
         <v>74</v>
       </c>
       <c r="H70" t="str">
-        <f>LEFT(B70,LEN(B70)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2">
         <v>74</v>
       </c>
-      <c r="K70" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -3024,22 +3192,22 @@
         <v>124</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" ref="G71:G132" si="1">LEFT(A71,LEN(A71)-LEN("s"))</f>
+        <f t="shared" ref="G71:G132" si="3">LEFT(A71,LEN(A71)-LEN("s"))</f>
         <v>77</v>
       </c>
       <c r="H71" t="str">
-        <f>LEFT(B71,LEN(B71)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2">
         <v>77</v>
       </c>
-      <c r="K71" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -3047,22 +3215,22 @@
         <v>124</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="H72" t="str">
-        <f>LEFT(B72,LEN(B72)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
+        <f t="shared" ref="H72:H103" si="4">LEFT(B72,LEN(B72)-LEN("RPM"))</f>
+        <v>1498</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2">
         <v>79</v>
       </c>
-      <c r="K72" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -3070,22 +3238,22 @@
         <v>124</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H73" t="str">
-        <f>LEFT(B73,LEN(B73)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
         <v>80</v>
       </c>
-      <c r="K73" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -3093,22 +3261,22 @@
         <v>124</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H74" t="str">
-        <f>LEFT(B74,LEN(B74)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2">
         <v>81</v>
       </c>
-      <c r="K74" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -3116,22 +3284,22 @@
         <v>124</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="H75" t="str">
-        <f>LEFT(B75,LEN(B75)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2">
         <v>82</v>
       </c>
-      <c r="K75" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -3139,22 +3307,22 @@
         <v>124</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="H76" t="str">
-        <f>LEFT(B76,LEN(B76)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
         <v>83</v>
       </c>
-      <c r="K76" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -3162,22 +3330,22 @@
         <v>124</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="H77" t="str">
-        <f>LEFT(B77,LEN(B77)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2">
         <v>84</v>
       </c>
-      <c r="K77" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -3185,22 +3353,22 @@
         <v>124</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="H78" t="str">
-        <f>LEFT(B78,LEN(B78)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2">
         <v>86</v>
       </c>
-      <c r="K78" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -3208,22 +3376,22 @@
         <v>124</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="H79" t="str">
-        <f>LEFT(B79,LEN(B79)-LEN("RPM"))</f>
-        <v>1498</v>
-      </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3">
+        <f t="shared" si="4"/>
+        <v>1498</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2">
         <v>89</v>
       </c>
-      <c r="K79" s="3">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -3231,22 +3399,22 @@
         <v>145</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="H80" t="str">
-        <f>LEFT(B80,LEN(B80)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1518</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2">
         <v>91</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -3254,22 +3422,22 @@
         <v>147</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="H81" t="str">
-        <f>LEFT(B81,LEN(B81)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1538</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2">
         <v>92</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -3277,22 +3445,22 @@
         <v>149</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="H82" t="str">
-        <f>LEFT(B82,LEN(B82)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1638</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3">
+      <c r="I82" s="2"/>
+      <c r="J82" s="2">
         <v>93</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -3300,22 +3468,22 @@
         <v>151</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="H83" t="str">
-        <f>LEFT(B83,LEN(B83)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1658</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2">
         <v>94</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -3323,22 +3491,22 @@
         <v>153</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="H84" t="str">
-        <f>LEFT(B84,LEN(B84)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1678</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3">
+      <c r="I84" s="2"/>
+      <c r="J84" s="2">
         <v>95</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -3346,22 +3514,22 @@
         <v>155</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="H85" t="str">
-        <f>LEFT(B85,LEN(B85)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1778</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3">
+      <c r="I85" s="2"/>
+      <c r="J85" s="2">
         <v>96</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -3369,22 +3537,22 @@
         <v>157</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="H86" t="str">
-        <f>LEFT(B86,LEN(B86)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1898</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2">
         <v>98</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -3392,22 +3560,22 @@
         <v>159</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H87" t="str">
-        <f>LEFT(B87,LEN(B87)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1918</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2">
         <v>99</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -3415,22 +3583,22 @@
         <v>161</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H88" t="str">
-        <f>LEFT(B88,LEN(B88)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>1938</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2">
         <v>100</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -3438,22 +3606,22 @@
         <v>163</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="H89" t="str">
-        <f>LEFT(B89,LEN(B89)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2">
         <v>101</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -3461,22 +3629,22 @@
         <v>165</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H90" t="str">
-        <f>LEFT(B90,LEN(B90)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2058</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2">
         <v>102</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -3484,22 +3652,22 @@
         <v>167</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="H91" t="str">
-        <f>LEFT(B91,LEN(B91)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2158</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2">
         <v>103</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -3507,22 +3675,22 @@
         <v>169</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="H92" t="str">
-        <f>LEFT(B92,LEN(B92)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2178</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3">
+      <c r="I92" s="2"/>
+      <c r="J92" s="2">
         <v>104</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -3530,22 +3698,22 @@
         <v>171</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="H93" t="str">
-        <f>LEFT(B93,LEN(B93)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2198</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3">
+      <c r="I93" s="2"/>
+      <c r="J93" s="2">
         <v>105</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -3553,22 +3721,22 @@
         <v>173</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="H94" t="str">
-        <f>LEFT(B94,LEN(B94)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2298</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3">
+      <c r="I94" s="2"/>
+      <c r="J94" s="2">
         <v>106</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>174</v>
       </c>
@@ -3576,22 +3744,22 @@
         <v>175</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="H95" t="str">
-        <f>LEFT(B95,LEN(B95)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2318</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2">
         <v>107</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -3599,22 +3767,22 @@
         <v>177</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H96" t="str">
-        <f>LEFT(B96,LEN(B96)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2418</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3">
+      <c r="I96" s="2"/>
+      <c r="J96" s="2">
         <v>108</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -3622,22 +3790,22 @@
         <v>179</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="H97" t="str">
-        <f>LEFT(B97,LEN(B97)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2438</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3">
+      <c r="I97" s="2"/>
+      <c r="J97" s="2">
         <v>109</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -3645,22 +3813,22 @@
         <v>181</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="H98" t="str">
-        <f>LEFT(B98,LEN(B98)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2458</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2">
         <v>110</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="2">
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -3668,22 +3836,22 @@
         <v>183</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="H99" t="str">
-        <f>LEFT(B99,LEN(B99)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2">
         <v>111</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -3691,22 +3859,22 @@
         <v>185</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="H100" t="str">
-        <f>LEFT(B100,LEN(B100)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2578</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2">
         <v>112</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -3714,22 +3882,22 @@
         <v>187</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="H101" t="str">
-        <f>LEFT(B101,LEN(B101)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2678</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2">
         <v>113</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -3737,22 +3905,22 @@
         <v>189</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="H102" t="str">
-        <f>LEFT(B102,LEN(B102)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2698</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3">
+      <c r="I102" s="2"/>
+      <c r="J102" s="2">
         <v>114</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>190</v>
       </c>
@@ -3760,22 +3928,22 @@
         <v>191</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="H103" t="str">
-        <f>LEFT(B103,LEN(B103)-LEN("RPM"))</f>
+        <f t="shared" si="4"/>
         <v>2718</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3">
+      <c r="I103" s="2"/>
+      <c r="J103" s="2">
         <v>115</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -3783,22 +3951,22 @@
         <v>193</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="H104" t="str">
-        <f>LEFT(B104,LEN(B104)-LEN("RPM"))</f>
+        <f t="shared" ref="H104:H132" si="5">LEFT(B104,LEN(B104)-LEN("RPM"))</f>
         <v>2818</v>
       </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3">
+      <c r="I104" s="2"/>
+      <c r="J104" s="2">
         <v>116</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="2">
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -3806,22 +3974,22 @@
         <v>195</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="H105" t="str">
-        <f>LEFT(B105,LEN(B105)-LEN("RPM"))</f>
+        <f t="shared" si="5"/>
         <v>2838</v>
       </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2">
         <v>117</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>196</v>
       </c>
@@ -3829,22 +3997,22 @@
         <v>197</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="H106" t="str">
-        <f>LEFT(B106,LEN(B106)-LEN("RPM"))</f>
+        <f t="shared" si="5"/>
         <v>2938</v>
       </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2">
         <v>118</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>198</v>
       </c>
@@ -3852,22 +4020,22 @@
         <v>199</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="H107" t="str">
-        <f>LEFT(B107,LEN(B107)-LEN("RPM"))</f>
+        <f t="shared" si="5"/>
         <v>2958</v>
       </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2">
         <v>119</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -3875,22 +4043,22 @@
         <v>201</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="H108" t="str">
-        <f>LEFT(B108,LEN(B108)-LEN("RPM"))</f>
+        <f t="shared" si="5"/>
         <v>2978</v>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2">
         <v>120</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -3898,22 +4066,22 @@
         <v>203</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="H109" t="str">
-        <f>LEFT(B109,LEN(B109)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2">
         <v>121</v>
       </c>
-      <c r="K109" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -3921,22 +4089,22 @@
         <v>203</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="H110" t="str">
-        <f>LEFT(B110,LEN(B110)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2">
         <v>122</v>
       </c>
-      <c r="K110" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -3944,22 +4112,22 @@
         <v>203</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="H111" t="str">
-        <f>LEFT(B111,LEN(B111)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2">
         <v>123</v>
       </c>
-      <c r="K111" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -3967,22 +4135,22 @@
         <v>203</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="H112" t="str">
-        <f>LEFT(B112,LEN(B112)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2">
         <v>124</v>
       </c>
-      <c r="K112" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -3990,22 +4158,22 @@
         <v>203</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="H113" t="str">
-        <f>LEFT(B113,LEN(B113)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2">
         <v>125</v>
       </c>
-      <c r="K113" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -4013,22 +4181,22 @@
         <v>203</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="H114" t="str">
-        <f>LEFT(B114,LEN(B114)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2">
         <v>126</v>
       </c>
-      <c r="K114" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -4036,22 +4204,22 @@
         <v>203</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="H115" t="str">
-        <f>LEFT(B115,LEN(B115)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2">
         <v>127</v>
       </c>
-      <c r="K115" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -4059,22 +4227,22 @@
         <v>203</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="H116" t="str">
-        <f>LEFT(B116,LEN(B116)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2">
         <v>128</v>
       </c>
-      <c r="K116" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>211</v>
       </c>
@@ -4082,22 +4250,22 @@
         <v>203</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="H117" t="str">
-        <f>LEFT(B117,LEN(B117)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2">
         <v>129</v>
       </c>
-      <c r="K117" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>212</v>
       </c>
@@ -4105,22 +4273,22 @@
         <v>203</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="H118" t="str">
-        <f>LEFT(B118,LEN(B118)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2">
         <v>130</v>
       </c>
-      <c r="K118" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>213</v>
       </c>
@@ -4128,22 +4296,22 @@
         <v>203</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="H119" t="str">
-        <f>LEFT(B119,LEN(B119)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2">
         <v>131</v>
       </c>
-      <c r="K119" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -4151,22 +4319,22 @@
         <v>203</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="H120" t="str">
-        <f>LEFT(B120,LEN(B120)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2">
         <v>132</v>
       </c>
-      <c r="K120" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>215</v>
       </c>
@@ -4174,22 +4342,22 @@
         <v>203</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="H121" t="str">
-        <f>LEFT(B121,LEN(B121)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2">
         <v>133</v>
       </c>
-      <c r="K121" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>216</v>
       </c>
@@ -4197,22 +4365,22 @@
         <v>203</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="H122" t="str">
-        <f>LEFT(B122,LEN(B122)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2">
         <v>134</v>
       </c>
-      <c r="K122" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>217</v>
       </c>
@@ -4220,22 +4388,22 @@
         <v>203</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="H123" t="str">
-        <f>LEFT(B123,LEN(B123)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2">
         <v>135</v>
       </c>
-      <c r="K123" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -4243,22 +4411,22 @@
         <v>203</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="H124" t="str">
-        <f>LEFT(B124,LEN(B124)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2">
         <v>136</v>
       </c>
-      <c r="K124" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -4266,22 +4434,22 @@
         <v>203</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="H125" t="str">
-        <f>LEFT(B125,LEN(B125)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2">
         <v>137</v>
       </c>
-      <c r="K125" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4289,22 +4457,22 @@
         <v>203</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="H126" t="str">
-        <f>LEFT(B126,LEN(B126)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2">
         <v>138</v>
       </c>
-      <c r="K126" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>221</v>
       </c>
@@ -4312,22 +4480,22 @@
         <v>203</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="H127" t="str">
-        <f>LEFT(B127,LEN(B127)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2">
         <v>139</v>
       </c>
-      <c r="K127" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -4335,22 +4503,22 @@
         <v>203</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="H128" t="str">
-        <f>LEFT(B128,LEN(B128)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2">
         <v>140</v>
       </c>
-      <c r="K128" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>223</v>
       </c>
@@ -4358,22 +4526,22 @@
         <v>203</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="H129" t="str">
-        <f>LEFT(B129,LEN(B129)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2">
         <v>141</v>
       </c>
-      <c r="K129" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>224</v>
       </c>
@@ -4381,22 +4549,22 @@
         <v>203</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="H130" t="str">
-        <f>LEFT(B130,LEN(B130)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2">
         <v>142</v>
       </c>
-      <c r="K130" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>225</v>
       </c>
@@ -4404,22 +4572,22 @@
         <v>203</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="H131" t="str">
-        <f>LEFT(B131,LEN(B131)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2">
         <v>143</v>
       </c>
-      <c r="K131" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>226</v>
       </c>
@@ -4427,22 +4595,22 @@
         <v>203</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="H132" t="str">
-        <f>LEFT(B132,LEN(B132)-LEN("RPM"))</f>
-        <v>2998</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3">
+        <f t="shared" si="5"/>
+        <v>2998</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2">
         <v>144</v>
       </c>
-      <c r="K132" s="3">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="2">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>227</v>
       </c>
@@ -4468,51 +4636,51 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="358">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -47,15 +47,9 @@
     <t>寄存器说明</t>
   </si>
   <si>
-    <t>StartHeatKeTiTemp</t>
-  </si>
-  <si>
     <t>开始点火壳体温度，高于这个值先通风吹凉，再点火</t>
   </si>
   <si>
-    <t>HeatKeTiRiseTempSuc</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>HEAT_FS_EN_Time</t>
-  </si>
-  <si>
-    <t>HEAT_FS_D1.Start_s</t>
   </si>
   <si>
     <t>秒</t>
@@ -763,34 +754,422 @@
   </si>
   <si>
     <t>判断点火是否成功的判决点，根据壳体温度判决</t>
+  </si>
+  <si>
+    <t>HEAT_HS_EN_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_HS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_HS_D1.Stop_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_HS_D1.parm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_HS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D2.parm</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D3.parm</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D4.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D4.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D4.parm</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D5.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D5.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT_HS_D5.parm</t>
+  </si>
+  <si>
+    <t>STOP_FS_D1.Stop_s</t>
+  </si>
+  <si>
+    <t>STOP_FS_D1.parm</t>
+  </si>
+  <si>
+    <t>STOP_FS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>STOP_FS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>STOP_FS_D2.parm</t>
+  </si>
+  <si>
+    <t>STOP_FS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>STOP_HS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_FS_D3.Stop_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_HS_D1.Stop_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_FS_D3.parm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_HS_D1.parm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_HS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>STOP_HS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>STOP_HS_D2.parm</t>
+  </si>
+  <si>
+    <t>STOP_HS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>STOP_HS_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>STOP_HS_D3.parm</t>
+  </si>
+  <si>
+    <t>STOP_SW2OFF_KetiTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_SW2OFF_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIND_FS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIND_FS_D1.Stop_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIND_FS_D1.parm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIND_FS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>WIND_FS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>WIND_FS_D2.parm</t>
+  </si>
+  <si>
+    <t>WIND_FS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>WIND_FS_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>WIND_FS_D3.parm</t>
+  </si>
+  <si>
+    <t>HEAT_FS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_KETI_RISE_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_KT_START_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_FS_D1.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D1.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D1.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D2.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D3.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D4.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D4.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D4.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D5.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D5.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_D5.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D1.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D1.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D2.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D2.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D3.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D3.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D4.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D4.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D4.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D5.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D5.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_FS_OFST_D5.parm</t>
+  </si>
+  <si>
+    <t>STOP_FS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_HS_D1.Start_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_HS_D1.Stop_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT2_HS_D1.parm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_HS_D2.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D2.Stop_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT2_HS_D2.parm </t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D3.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D3.Stop_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT2_HS_D3.parm </t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D4.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D4.Stop_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT2_HS_D4.parm </t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D5.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_D5.Stop_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT2_HS_D5.parm </t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D1.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D1.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D1.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D2.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D2.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D2.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D3.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D3.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D3.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D4.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D4.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D4.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D5.Start_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D5.Stop_s</t>
+  </si>
+  <si>
+    <t>HEAT2_HS_OFST_D5.parm</t>
+  </si>
+  <si>
+    <t>HEAT2_KT_DROPDOWN_START_HEAT</t>
+  </si>
+  <si>
+    <t>HEAT2_START_HEAT_Time</t>
+  </si>
+  <si>
+    <t>低于70摄氏度开启二次点火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于90秒，开始判断二次点火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT2_YB_EN_OFST_Time</t>
+  </si>
+  <si>
+    <t>HEAT2_YB_ADJ_OFST_Time</t>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压值(M100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄氏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间速算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -805,16 +1184,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -834,7 +1218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,9 +1510,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1136,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1144,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1152,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1176,22 +1560,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,458 +1586,1915 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="4">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1500</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26">
+        <v>1400</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="6">
+        <v>70</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="8">
+        <v>90</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="8">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49">
+        <v>2000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <f>C43+C59</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <f>C43+C60</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61">
+        <v>1000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <f>C43+C62</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <f>C43+C63</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64">
+        <v>1500</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <f>C43+C65</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66">
+        <v>120</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <f>C43+C66</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67">
+        <v>2000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>318</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76">
+        <v>1500</v>
+      </c>
+      <c r="D76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <f>C43+C89</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <f>C43+C90</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91">
+        <v>1500</v>
+      </c>
+      <c r="D91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104">
+        <f>C43+C104</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105">
+        <v>65</v>
+      </c>
+      <c r="D105" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105">
+        <f>C43+C105</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0</v>
+      </c>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128">
+        <v>2000</v>
+      </c>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1671,15 +3512,15 @@
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1687,60 +3528,60 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6" t="str">
         <f>LEFT(A6,LEN(A6)-LEN("s"))</f>
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ref="G7:G70" si="0">LEFT(A7,LEN(A7)-LEN("s"))</f>
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" t="str">
         <f>LEFT(A8,LEN(A8)-LEN("s"))</f>
@@ -1758,12 +3599,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1781,12 +3622,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1804,12 +3645,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1827,12 +3668,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1850,12 +3691,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1873,12 +3714,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1896,12 +3737,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1919,12 +3760,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1942,12 +3783,12 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1965,12 +3806,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1988,12 +3829,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -2011,12 +3852,12 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -2034,12 +3875,12 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -2057,12 +3898,12 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -2080,12 +3921,12 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -2103,12 +3944,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -2126,12 +3967,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -2149,12 +3990,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2172,12 +4013,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2195,12 +4036,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2218,12 +4059,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2241,12 +4082,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2264,12 +4105,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2287,12 +4128,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2310,12 +4151,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2333,12 +4174,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2356,12 +4197,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -2379,12 +4220,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2402,12 +4243,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2425,12 +4266,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2448,12 +4289,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2471,12 +4312,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2494,12 +4335,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2517,12 +4358,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2540,12 +4381,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2563,12 +4404,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2586,12 +4427,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2609,12 +4450,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2632,12 +4473,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2655,12 +4496,12 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2678,12 +4519,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2701,12 +4542,12 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2724,12 +4565,12 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2747,12 +4588,12 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2770,12 +4611,12 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2793,12 +4634,12 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2816,12 +4657,12 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2839,12 +4680,12 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2862,12 +4703,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2885,12 +4726,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -2908,12 +4749,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -2931,12 +4772,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -2954,12 +4795,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -2977,12 +4818,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -3000,12 +4841,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -3023,12 +4864,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -3046,12 +4887,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -3069,12 +4910,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -3092,12 +4933,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
@@ -3115,12 +4956,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
@@ -3138,12 +4979,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
@@ -3161,12 +5002,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
@@ -3184,12 +5025,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" ref="G71:G132" si="3">LEFT(A71,LEN(A71)-LEN("s"))</f>
@@ -3207,12 +5048,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="3"/>
@@ -3230,12 +5071,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="3"/>
@@ -3253,12 +5094,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="3"/>
@@ -3276,12 +5117,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="3"/>
@@ -3299,12 +5140,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="3"/>
@@ -3322,12 +5163,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="3"/>
@@ -3345,12 +5186,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="3"/>
@@ -3368,12 +5209,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="3"/>
@@ -3391,12 +5232,12 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="3"/>
@@ -3414,12 +5255,12 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="3"/>
@@ -3437,12 +5278,12 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="3"/>
@@ -3460,12 +5301,12 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="3"/>
@@ -3483,12 +5324,12 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="3"/>
@@ -3506,12 +5347,12 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="3"/>
@@ -3529,12 +5370,12 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="3"/>
@@ -3552,12 +5393,12 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="3"/>
@@ -3575,12 +5416,12 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="3"/>
@@ -3598,12 +5439,12 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="3"/>
@@ -3621,12 +5462,12 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="3"/>
@@ -3644,12 +5485,12 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="3"/>
@@ -3667,12 +5508,12 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="3"/>
@@ -3690,12 +5531,12 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="3"/>
@@ -3713,12 +5554,12 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="3"/>
@@ -3736,12 +5577,12 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="3"/>
@@ -3759,12 +5600,12 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="3"/>
@@ -3782,12 +5623,12 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="3"/>
@@ -3805,12 +5646,12 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="3"/>
@@ -3828,12 +5669,12 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
@@ -3851,12 +5692,12 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
@@ -3874,12 +5715,12 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
@@ -3897,12 +5738,12 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
@@ -3920,12 +5761,12 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
@@ -3943,12 +5784,12 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
@@ -3966,12 +5807,12 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
@@ -3989,12 +5830,12 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
@@ -4012,12 +5853,12 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
@@ -4035,12 +5876,12 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
@@ -4058,12 +5899,12 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
@@ -4081,12 +5922,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
@@ -4104,12 +5945,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
@@ -4127,12 +5968,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
@@ -4150,12 +5991,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
@@ -4173,12 +6014,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
@@ -4196,12 +6037,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
@@ -4219,12 +6060,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
@@ -4242,12 +6083,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
@@ -4265,12 +6106,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
@@ -4288,12 +6129,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
@@ -4311,12 +6152,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="3"/>
@@ -4334,12 +6175,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="3"/>
@@ -4357,12 +6198,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
@@ -4380,12 +6221,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
@@ -4403,12 +6244,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="3"/>
@@ -4426,12 +6267,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="3"/>
@@ -4449,12 +6290,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="3"/>
@@ -4472,12 +6313,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="3"/>
@@ -4495,12 +6336,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="3"/>
@@ -4518,12 +6359,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="3"/>
@@ -4541,12 +6382,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="3"/>
@@ -4564,12 +6405,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="3"/>
@@ -4587,12 +6428,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="3"/>
@@ -4610,12 +6451,12 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4636,50 +6477,50 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
   </sheetData>

--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -1184,18 +1184,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1560,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1595,20 +1601,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="4">
-        <v>70</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3">
+        <f ca="1">C2:C77</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2224,65 +2231,65 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>70</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>90</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="8">
-        <v>0</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>10</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3166,14 +3173,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3188,14 +3195,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>2000</v>
       </c>
     </row>
@@ -3390,13 +3397,13 @@
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C126" s="5">
-        <v>0</v>
-      </c>
-      <c r="D126" s="5"/>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -3409,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3485,16 +3492,6 @@
       </c>
       <c r="C134">
         <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3522,11 +3519,11 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6471,57 +6468,1745 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>A1&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="C1" t="str">
+        <f t="shared" ref="C1:C64" si="0">B1&amp;C2</f>
+        <v>0,5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2:B65" si="1">A2&amp;","</f>
+        <v>5,</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="0"/>
+        <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10,</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000,</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>50,</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1500,</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>90,</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>120,</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2000,</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4,</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4,</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8,</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>500</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>500,</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8,</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>12,</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1400</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1400,</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>65,</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7,</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>150</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>150,</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>70,</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>90,</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10,</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000,</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>70,</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2000,</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10,</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000,</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>50</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>50,</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1500,</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>90</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>90,</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>120,</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C128" si="2">B65&amp;C66</f>
+        <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" ref="B66:B129" si="3">A66&amp;","</f>
+        <v>2000,</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="2"/>
+        <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>50</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>50,</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>55,</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1500,</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>110</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>110,</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>115</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>115,</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4,</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10,</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1500,</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="2"/>
+        <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>60</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>60,</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="2"/>
+        <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>65</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>65,</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="2"/>
+        <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="2"/>
+        <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10,</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="2"/>
+        <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2000,</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="2"/>
+        <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>55</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>55,</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="2"/>
+        <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>60</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>60,</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="2"/>
+        <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1500,</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="2"/>
+        <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="2"/>
+        <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10,</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="2"/>
+        <v>10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>15,</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="2"/>
+        <v>15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1500,</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="2"/>
+        <v>1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>50</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>50,</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="2"/>
+        <v>50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>55</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>55,</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="2"/>
+        <v>55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="2"/>
+        <v>0,60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>60</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>60,</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="2"/>
+        <v>60,70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>70,</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="2"/>
+        <v>70,0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="2"/>
+        <v>0,10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>10,</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="2"/>
+        <v>10,2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2000,</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="2"/>
+        <v>2000,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ref="C129:C132" si="4">B129&amp;C130</f>
+        <v>0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" ref="B130:B133" si="5">A130&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0,</v>
+      </c>
+      <c r="C133" t="str">
+        <f>B133&amp;C134</f>
+        <v>0,</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1141,18 +1141,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,18 +1193,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1224,7 +1224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1516,9 +1516,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1572,16 +1572,16 @@
       <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="7" customFormat="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="4" customFormat="1">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="6" customFormat="1">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="4" customFormat="1">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="D128"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3509,23 +3509,23 @@
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>217</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6474,13 +6474,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+    <row r="1" spans="1:3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="str">
@@ -6492,8 +6492,8 @@
         <v>0,5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:3">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -6505,8 +6505,8 @@
         <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="str">
@@ -6518,8 +6518,8 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -6531,8 +6531,8 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -6544,8 +6544,8 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
         <v>1000</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -6557,8 +6557,8 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -6570,8 +6570,8 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
         <v>60</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -6583,8 +6583,8 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:3">
+      <c r="A9" s="8">
         <v>1500</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -6596,8 +6596,8 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
         <v>90</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -6609,8 +6609,8 @@
         <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8">
         <v>120</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -6622,8 +6622,8 @@
         <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:3">
+      <c r="A12" s="8">
         <v>2000</v>
       </c>
       <c r="B12" s="1" t="str">
@@ -6635,8 +6635,8 @@
         <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:3">
+      <c r="A13" s="8">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="str">
@@ -6648,8 +6648,8 @@
         <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:3">
+      <c r="A14" s="8">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="str">
@@ -6661,8 +6661,8 @@
         <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:3">
+      <c r="A15" s="8">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="str">
@@ -6674,8 +6674,8 @@
         <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:3">
+      <c r="A16" s="8">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="str">
@@ -6687,8 +6687,8 @@
         <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:3">
+      <c r="A17" s="8">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -6700,8 +6700,8 @@
         <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="str">
@@ -6713,8 +6713,8 @@
         <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19" spans="1:3">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="str">
@@ -6726,8 +6726,8 @@
         <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:3">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="str">
@@ -6739,8 +6739,8 @@
         <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:3">
+      <c r="A21" s="8">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="str">
@@ -6752,8 +6752,8 @@
         <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8">
         <v>500</v>
       </c>
       <c r="B22" s="1" t="str">
@@ -6765,8 +6765,8 @@
         <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:3">
+      <c r="A23" s="8">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="str">
@@ -6778,8 +6778,8 @@
         <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:3">
+      <c r="A24" s="8">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
@@ -6791,8 +6791,8 @@
         <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="25" spans="1:3">
+      <c r="A25" s="8">
         <v>1400</v>
       </c>
       <c r="B25" s="1" t="str">
@@ -6804,8 +6804,8 @@
         <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:3">
+      <c r="A26" s="8">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="str">
@@ -6817,8 +6817,8 @@
         <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="27" spans="1:3">
+      <c r="A27" s="8">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="str">
@@ -6830,8 +6830,8 @@
         <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="28" spans="1:3">
+      <c r="A28" s="8">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="str">
@@ -6843,8 +6843,8 @@
         <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29" spans="1:3">
+      <c r="A29" s="8">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="str">
@@ -6856,8 +6856,8 @@
         <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30" spans="1:3">
+      <c r="A30" s="8">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="str">
@@ -6869,8 +6869,8 @@
         <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="31" spans="1:3">
+      <c r="A31" s="8">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="str">
@@ -6882,8 +6882,8 @@
         <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32" spans="1:3">
+      <c r="A32" s="8">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="str">
@@ -6895,8 +6895,8 @@
         <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33" spans="1:3">
+      <c r="A33" s="8">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="str">
@@ -6908,8 +6908,8 @@
         <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="34" spans="1:3">
+      <c r="A34" s="8">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="str">
@@ -6921,8 +6921,8 @@
         <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+    <row r="35" spans="1:3">
+      <c r="A35" s="8">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="str">
@@ -6934,8 +6934,8 @@
         <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+    <row r="36" spans="1:3">
+      <c r="A36" s="8">
         <v>60</v>
       </c>
       <c r="B36" s="1" t="str">
@@ -6947,8 +6947,8 @@
         <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+    <row r="37" spans="1:3">
+      <c r="A37" s="8">
         <v>65</v>
       </c>
       <c r="B37" s="1" t="str">
@@ -6960,8 +6960,8 @@
         <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="38" spans="1:3">
+      <c r="A38" s="8">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="str">
@@ -6973,8 +6973,8 @@
         <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39" spans="1:3">
+      <c r="A39" s="8">
         <v>60</v>
       </c>
       <c r="B39" s="1" t="str">
@@ -6986,8 +6986,8 @@
         <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40" spans="1:3">
+      <c r="A40" s="8">
         <v>150</v>
       </c>
       <c r="B40" s="1" t="str">
@@ -6999,8 +6999,8 @@
         <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="41" spans="1:3">
+      <c r="A41" s="9">
         <v>70</v>
       </c>
       <c r="B41" s="1" t="str">
@@ -7012,8 +7012,8 @@
         <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="42" spans="1:3">
+      <c r="A42" s="10">
         <v>90</v>
       </c>
       <c r="B42" s="1" t="str">
@@ -7025,8 +7025,8 @@
         <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+    <row r="43" spans="1:3">
+      <c r="A43" s="10">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="str">
@@ -7038,8 +7038,8 @@
         <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+    <row r="44" spans="1:3">
+      <c r="A44" s="10">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="str">
@@ -7051,8 +7051,8 @@
         <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+    <row r="45" spans="1:3">
+      <c r="A45" s="8">
         <v>1000</v>
       </c>
       <c r="B45" s="1" t="str">
@@ -7064,8 +7064,8 @@
         <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+    <row r="46" spans="1:3">
+      <c r="A46" s="8">
         <v>60</v>
       </c>
       <c r="B46" s="1" t="str">
@@ -7077,8 +7077,8 @@
         <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+    <row r="47" spans="1:3">
+      <c r="A47" s="8">
         <v>70</v>
       </c>
       <c r="B47" s="1" t="str">
@@ -7090,8 +7090,8 @@
         <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+    <row r="48" spans="1:3">
+      <c r="A48" s="8">
         <v>2000</v>
       </c>
       <c r="B48" s="1" t="str">
@@ -7103,8 +7103,8 @@
         <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+    <row r="49" spans="1:3">
+      <c r="A49" s="8">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="str">
@@ -7116,8 +7116,8 @@
         <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+    <row r="50" spans="1:3">
+      <c r="A50" s="8">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="str">
@@ -7129,8 +7129,8 @@
         <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+    <row r="51" spans="1:3">
+      <c r="A51" s="8">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="str">
@@ -7142,8 +7142,8 @@
         <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52" spans="1:3">
+      <c r="A52" s="8">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="str">
@@ -7155,8 +7155,8 @@
         <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="53" spans="1:3">
+      <c r="A53" s="8">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="str">
@@ -7168,8 +7168,8 @@
         <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+    <row r="54" spans="1:3">
+      <c r="A54" s="8">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="str">
@@ -7181,8 +7181,8 @@
         <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+    <row r="55" spans="1:3">
+      <c r="A55" s="8">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="str">
@@ -7194,8 +7194,8 @@
         <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56" spans="1:3">
+      <c r="A56" s="8">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="str">
@@ -7207,8 +7207,8 @@
         <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="57" spans="1:3">
+      <c r="A57" s="8">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="str">
@@ -7220,8 +7220,8 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58" spans="1:3">
+      <c r="A58" s="8">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="str">
@@ -7233,8 +7233,8 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+    <row r="59" spans="1:3">
+      <c r="A59" s="8">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="str">
@@ -7246,8 +7246,8 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60" spans="1:3">
+      <c r="A60" s="8">
         <v>1000</v>
       </c>
       <c r="B60" s="1" t="str">
@@ -7259,8 +7259,8 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+    <row r="61" spans="1:3">
+      <c r="A61" s="8">
         <v>50</v>
       </c>
       <c r="B61" s="1" t="str">
@@ -7272,8 +7272,8 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+    <row r="62" spans="1:3">
+      <c r="A62" s="8">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="str">
@@ -7285,8 +7285,8 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+    <row r="63" spans="1:3">
+      <c r="A63" s="8">
         <v>1500</v>
       </c>
       <c r="B63" s="1" t="str">
@@ -7298,8 +7298,8 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+    <row r="64" spans="1:3">
+      <c r="A64" s="8">
         <v>90</v>
       </c>
       <c r="B64" s="1" t="str">
@@ -7311,8 +7311,8 @@
         <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+    <row r="65" spans="1:3">
+      <c r="A65" s="8">
         <v>120</v>
       </c>
       <c r="B65" s="1" t="str">
@@ -7324,8 +7324,8 @@
         <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+    <row r="66" spans="1:3">
+      <c r="A66" s="8">
         <v>2000</v>
       </c>
       <c r="B66" s="1" t="str">
@@ -7337,8 +7337,8 @@
         <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+    <row r="67" spans="1:3">
+      <c r="A67" s="8">
         <v>0</v>
       </c>
       <c r="B67" s="1" t="str">
@@ -7350,8 +7350,8 @@
         <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+    <row r="68" spans="1:3">
+      <c r="A68" s="8">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="str">
@@ -7363,8 +7363,8 @@
         <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+    <row r="69" spans="1:3">
+      <c r="A69" s="8">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="str">
@@ -7376,8 +7376,8 @@
         <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+    <row r="70" spans="1:3">
+      <c r="A70" s="8">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="str">
@@ -7389,8 +7389,8 @@
         <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+    <row r="71" spans="1:3">
+      <c r="A71" s="8">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="str">
@@ -7402,8 +7402,8 @@
         <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="72" spans="1:3">
+      <c r="A72" s="8">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="str">
@@ -7415,8 +7415,8 @@
         <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+    <row r="73" spans="1:3">
+      <c r="A73" s="8">
         <v>50</v>
       </c>
       <c r="B73" s="1" t="str">
@@ -7428,8 +7428,8 @@
         <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+    <row r="74" spans="1:3">
+      <c r="A74" s="8">
         <v>55</v>
       </c>
       <c r="B74" s="1" t="str">
@@ -7441,8 +7441,8 @@
         <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+    <row r="75" spans="1:3">
+      <c r="A75" s="8">
         <v>1500</v>
       </c>
       <c r="B75" s="1" t="str">
@@ -7454,8 +7454,8 @@
         <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+    <row r="76" spans="1:3">
+      <c r="A76" s="8">
         <v>110</v>
       </c>
       <c r="B76" s="1" t="str">
@@ -7467,8 +7467,8 @@
         <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+    <row r="77" spans="1:3">
+      <c r="A77" s="8">
         <v>115</v>
       </c>
       <c r="B77" s="1" t="str">
@@ -7480,8 +7480,8 @@
         <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+    <row r="78" spans="1:3">
+      <c r="A78" s="8">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="str">
@@ -7493,8 +7493,8 @@
         <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+    <row r="79" spans="1:3">
+      <c r="A79" s="8">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="str">
@@ -7506,8 +7506,8 @@
         <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+    <row r="80" spans="1:3">
+      <c r="A80" s="8">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="str">
@@ -7519,8 +7519,8 @@
         <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+    <row r="81" spans="1:3">
+      <c r="A81" s="8">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="str">
@@ -7532,8 +7532,8 @@
         <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+    <row r="82" spans="1:3">
+      <c r="A82" s="8">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="str">
@@ -7545,8 +7545,8 @@
         <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+    <row r="83" spans="1:3">
+      <c r="A83" s="8">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="str">
@@ -7558,8 +7558,8 @@
         <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+    <row r="84" spans="1:3">
+      <c r="A84" s="8">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="str">
@@ -7571,8 +7571,8 @@
         <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="85" spans="1:3">
+      <c r="A85" s="8">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="str">
@@ -7584,8 +7584,8 @@
         <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+    <row r="86" spans="1:3">
+      <c r="A86" s="8">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="str">
@@ -7597,8 +7597,8 @@
         <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+    <row r="87" spans="1:3">
+      <c r="A87" s="8">
         <v>0</v>
       </c>
       <c r="B87" s="1" t="str">
@@ -7610,8 +7610,8 @@
         <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+    <row r="88" spans="1:3">
+      <c r="A88" s="8">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="str">
@@ -7623,8 +7623,8 @@
         <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+    <row r="89" spans="1:3">
+      <c r="A89" s="8">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="str">
@@ -7636,8 +7636,8 @@
         <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+    <row r="90" spans="1:3">
+      <c r="A90" s="8">
         <v>1500</v>
       </c>
       <c r="B90" s="1" t="str">
@@ -7649,8 +7649,8 @@
         <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+    <row r="91" spans="1:3">
+      <c r="A91" s="8">
         <v>0</v>
       </c>
       <c r="B91" s="1" t="str">
@@ -7662,8 +7662,8 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+    <row r="92" spans="1:3">
+      <c r="A92" s="8">
         <v>0</v>
       </c>
       <c r="B92" s="1" t="str">
@@ -7675,8 +7675,8 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+    <row r="93" spans="1:3">
+      <c r="A93" s="8">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="str">
@@ -7688,8 +7688,8 @@
         <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+    <row r="94" spans="1:3">
+      <c r="A94" s="8">
         <v>0</v>
       </c>
       <c r="B94" s="1" t="str">
@@ -7701,8 +7701,8 @@
         <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+    <row r="95" spans="1:3">
+      <c r="A95" s="8">
         <v>0</v>
       </c>
       <c r="B95" s="1" t="str">
@@ -7714,8 +7714,8 @@
         <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+    <row r="96" spans="1:3">
+      <c r="A96" s="8">
         <v>0</v>
       </c>
       <c r="B96" s="1" t="str">
@@ -7727,8 +7727,8 @@
         <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+    <row r="97" spans="1:3">
+      <c r="A97" s="8">
         <v>0</v>
       </c>
       <c r="B97" s="1" t="str">
@@ -7740,8 +7740,8 @@
         <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+    <row r="98" spans="1:3">
+      <c r="A98" s="8">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="str">
@@ -7753,8 +7753,8 @@
         <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+    <row r="99" spans="1:3">
+      <c r="A99" s="8">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="str">
@@ -7766,8 +7766,8 @@
         <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+    <row r="100" spans="1:3">
+      <c r="A100" s="8">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="str">
@@ -7779,8 +7779,8 @@
         <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+    <row r="101" spans="1:3">
+      <c r="A101" s="8">
         <v>0</v>
       </c>
       <c r="B101" s="1" t="str">
@@ -7792,8 +7792,8 @@
         <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+    <row r="102" spans="1:3">
+      <c r="A102" s="8">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="str">
@@ -7805,8 +7805,8 @@
         <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+    <row r="103" spans="1:3">
+      <c r="A103" s="8">
         <v>60</v>
       </c>
       <c r="B103" s="1" t="str">
@@ -7818,8 +7818,8 @@
         <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+    <row r="104" spans="1:3">
+      <c r="A104" s="8">
         <v>65</v>
       </c>
       <c r="B104" s="1" t="str">
@@ -7831,8 +7831,8 @@
         <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="12">
+    <row r="105" spans="1:3">
+      <c r="A105" s="11">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="str">
@@ -7844,8 +7844,8 @@
         <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+    <row r="106" spans="1:3">
+      <c r="A106" s="8">
         <v>10</v>
       </c>
       <c r="B106" s="1" t="str">
@@ -7857,8 +7857,8 @@
         <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
+    <row r="107" spans="1:3">
+      <c r="A107" s="12">
         <v>2000</v>
       </c>
       <c r="B107" s="1" t="str">
@@ -7870,8 +7870,8 @@
         <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+    <row r="108" spans="1:3">
+      <c r="A108" s="8">
         <v>55</v>
       </c>
       <c r="B108" s="1" t="str">
@@ -7883,8 +7883,8 @@
         <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+    <row r="109" spans="1:3">
+      <c r="A109" s="8">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="str">
@@ -7896,8 +7896,8 @@
         <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+    <row r="110" spans="1:3">
+      <c r="A110" s="8">
         <v>1500</v>
       </c>
       <c r="B110" s="1" t="str">
@@ -7909,8 +7909,8 @@
         <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+    <row r="111" spans="1:3">
+      <c r="A111" s="8">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="str">
@@ -7922,8 +7922,8 @@
         <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+    <row r="112" spans="1:3">
+      <c r="A112" s="8">
         <v>0</v>
       </c>
       <c r="B112" s="1" t="str">
@@ -7935,8 +7935,8 @@
         <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+    <row r="113" spans="1:3">
+      <c r="A113" s="8">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="str">
@@ -7948,8 +7948,8 @@
         <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+    <row r="114" spans="1:3">
+      <c r="A114" s="8">
         <v>10</v>
       </c>
       <c r="B114" s="1" t="str">
@@ -7961,8 +7961,8 @@
         <v>10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+    <row r="115" spans="1:3">
+      <c r="A115" s="8">
         <v>15</v>
       </c>
       <c r="B115" s="1" t="str">
@@ -7974,8 +7974,8 @@
         <v>15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+    <row r="116" spans="1:3">
+      <c r="A116" s="8">
         <v>1500</v>
       </c>
       <c r="B116" s="1" t="str">
@@ -7987,8 +7987,8 @@
         <v>1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+    <row r="117" spans="1:3">
+      <c r="A117" s="8">
         <v>50</v>
       </c>
       <c r="B117" s="1" t="str">
@@ -8000,8 +8000,8 @@
         <v>50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
+    <row r="118" spans="1:3">
+      <c r="A118" s="8">
         <v>55</v>
       </c>
       <c r="B118" s="1" t="str">
@@ -8013,8 +8013,8 @@
         <v>55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+    <row r="119" spans="1:3">
+      <c r="A119" s="8">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="str">
@@ -8026,8 +8026,8 @@
         <v>0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+    <row r="120" spans="1:3">
+      <c r="A120" s="8">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="str">
@@ -8039,8 +8039,8 @@
         <v>0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+    <row r="121" spans="1:3">
+      <c r="A121" s="8">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="str">
@@ -8052,8 +8052,8 @@
         <v>0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+    <row r="122" spans="1:3">
+      <c r="A122" s="8">
         <v>0</v>
       </c>
       <c r="B122" s="1" t="str">
@@ -8065,8 +8065,8 @@
         <v>0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+    <row r="123" spans="1:3">
+      <c r="A123" s="8">
         <v>60</v>
       </c>
       <c r="B123" s="1" t="str">
@@ -8078,8 +8078,8 @@
         <v>60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+    <row r="124" spans="1:3">
+      <c r="A124" s="8">
         <v>70</v>
       </c>
       <c r="B124" s="1" t="str">
@@ -8091,8 +8091,8 @@
         <v>70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12">
+    <row r="125" spans="1:3">
+      <c r="A125" s="11">
         <v>0</v>
       </c>
       <c r="B125" s="1" t="str">
@@ -8104,8 +8104,8 @@
         <v>0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+    <row r="126" spans="1:3">
+      <c r="A126" s="8">
         <v>10</v>
       </c>
       <c r="B126" s="1" t="str">
@@ -8117,8 +8117,8 @@
         <v>10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+    <row r="127" spans="1:3">
+      <c r="A127" s="8">
         <v>2000</v>
       </c>
       <c r="B127" s="1" t="str">
@@ -8130,8 +8130,8 @@
         <v>2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+    <row r="128" spans="1:3">
+      <c r="A128" s="8">
         <v>0</v>
       </c>
       <c r="B128" s="1" t="str">
@@ -8143,8 +8143,8 @@
         <v>0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+    <row r="129" spans="1:3">
+      <c r="A129" s="8">
         <v>0</v>
       </c>
       <c r="B129" s="1" t="str">
@@ -8156,8 +8156,8 @@
         <v>0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+    <row r="130" spans="1:3">
+      <c r="A130" s="8">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="str">
@@ -8169,8 +8169,8 @@
         <v>0,0,0,0,</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+    <row r="131" spans="1:3">
+      <c r="A131" s="8">
         <v>0</v>
       </c>
       <c r="B131" s="1" t="str">
@@ -8182,8 +8182,8 @@
         <v>0,0,0,</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+    <row r="132" spans="1:3">
+      <c r="A132" s="8">
         <v>0</v>
       </c>
       <c r="B132" s="1" t="str">
@@ -8195,8 +8195,8 @@
         <v>0,0,</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+    <row r="133" spans="1:3">
+      <c r="A133" s="8">
         <v>0</v>
       </c>
       <c r="B133" s="1" t="str">

--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="358">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -1141,18 +1141,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1204,7 +1204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1224,7 +1224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1516,9 +1516,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1568,20 +1568,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1">
+    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1">
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="6" customFormat="1">
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3413,10 +3413,10 @@
         <v>276</v>
       </c>
       <c r="C127">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="4" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3424,11 +3424,11 @@
         <v>277</v>
       </c>
       <c r="C128">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="D128"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3509,13 +3509,13 @@
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>217</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6474,12 +6474,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>0</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>0,5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>10</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1000</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>50</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>60</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1500</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>90</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>120</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2000</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>0</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>0</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>8</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>500</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>8</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>12</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>1400</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>0</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>0</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>0</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>0</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>0</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>0</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>0</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>0</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>0</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>60</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>60</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>65</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>60</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>150</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>90</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>0</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>10</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>1000</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>60</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>70</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>2000</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>0</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>0</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>0</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>0</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>0</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>0</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>0</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>0</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>0</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>1</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>10</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>1000</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>50</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>1500</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>90</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>120</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>2000</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>0</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>0</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>0</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>0</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>0</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>0</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>50</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>55</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>1500</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>110</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>115</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>0</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>0</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>0</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>0</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>0</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>0</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>0</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>0</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>0</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>0</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>4</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>10</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>1500</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>0</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>0</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>0</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>0</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>0</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>0</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>0</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>0</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>0</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>0</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>0</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>0</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>60</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>65</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>0</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>10</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>2000</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>55</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>60</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>1500</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>0</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>0</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>0</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>10</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>15</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>1500</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>50</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>55</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>0</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>0</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>0</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>0</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>60</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>70</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>0</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>10</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>2000</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>0</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>0</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>0</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0,0,0,0,</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>0</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>0,0,0,</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>0</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>0,0,</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>0</v>
       </c>
@@ -8211,5 +8211,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="362">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -906,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEAT_KETI_RISE_TEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HEAT_KT_START_TEMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,25 +1132,47 @@
   <si>
     <t>时间速算</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAT_KETI_RISE_TEMP</t>
+  </si>
+  <si>
+    <t>文档数组</t>
+  </si>
+  <si>
+    <t>qqqq</t>
+  </si>
+  <si>
+    <t>PARM_LENGTH</t>
+  </si>
+  <si>
+    <t>PARM_CRC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1184,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1202,9 +1220,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1224,7 +1262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1516,9 +1554,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1526,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1534,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1542,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1550,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1566,22 +1604,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="C124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="6" max="6" width="33" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,18 +1638,24 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">C2:C77</f>
@@ -1615,16 +1664,36 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="21" t="str">
+        <f>B2&amp;"."</f>
+        <v>HEAT_KT_START_TEMP.</v>
+      </c>
+      <c r="H2">
+        <f>FIND(".",G2)</f>
+        <v>19</v>
+      </c>
+      <c r="I2" t="str">
+        <f>LEFT(B2,H2-1)</f>
+        <v>HEAT_KT_START_TEMP</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(I2=I3,N,I2)</f>
+        <v>HEAT_KT_START_TEMP</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K65" si="0">IF(J2&lt;&gt;0,IF(J1&lt;&gt;0,"uint16_t "&amp;J2&amp;";","PARM_TypeDef "&amp;J2&amp;";"),0)</f>
+        <v>uint16_t HEAT_KT_START_TEMP;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1632,11 +1701,31 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="21" t="str">
+        <f>B3&amp;"."</f>
+        <v>HEAT_KETI_RISE_TEMP.</v>
+      </c>
+      <c r="H3">
+        <f>FIND(".",G3)</f>
+        <v>20</v>
+      </c>
+      <c r="I3" t="str">
+        <f>LEFT(B3,H3-1)</f>
+        <v>HEAT_KETI_RISE_TEMP</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(I3=I4,,I3)</f>
+        <v>HEAT_KETI_RISE_TEMP</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_KETI_RISE_TEMP;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1649,11 +1738,31 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="21" t="str">
+        <f t="shared" ref="G4:G67" si="1">B4&amp;"."</f>
+        <v>HEAT_FS_EN_Time.</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="2">FIND(".",G4)</f>
+        <v>16</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I67" si="3">LEFT(B4,H4-1)</f>
+        <v>HEAT_FS_EN_Time</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J67" si="4">IF(I4=I5,,I4)</f>
+        <v>HEAT_FS_EN_Time</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_FS_EN_Time;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1666,11 +1775,31 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D1.Start_s.</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1683,11 +1812,31 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D1.Stop_s.</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1700,11 +1849,31 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D1.parm.</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D1</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_FS_D1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_FS_D1;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1717,11 +1886,31 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D2.Start_s.</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1734,11 +1923,31 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D2.Stop_s.</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1751,11 +1960,31 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D2.parm.</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D2</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_FS_D2</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_FS_D2;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1768,11 +1997,31 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D3.Start_s.</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1785,11 +2034,31 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D3.Stop_s.</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1802,11 +2071,31 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D3.parm.</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D3</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_FS_D3</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_FS_D3;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1819,11 +2108,31 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D4.Start_s.</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1836,11 +2145,31 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D4.Stop_s.</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1853,11 +2182,31 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D4.parm.</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D4</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_FS_D4</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_FS_D4;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1870,11 +2219,31 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D5.Start_s.</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1887,11 +2256,31 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D5.Stop_s.</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1904,11 +2293,31 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_FS_D5.parm.</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_FS_D5</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_FS_D5</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_FS_D5;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1918,8 +2327,28 @@
       <c r="C20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_EN_Time.</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_EN_Time</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_EN_Time</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_HS_EN_Time;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1932,8 +2361,28 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D1.Start_s.</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1946,8 +2395,28 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D1.Stop_s.</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1958,10 +2427,30 @@
         <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D1.parm.</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D1</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_D1</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_HS_D1;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1974,8 +2463,28 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D2.Start_s.</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1988,8 +2497,28 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D2.Stop_s.</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2000,10 +2529,30 @@
         <v>1400</v>
       </c>
       <c r="D26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G26" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D2.parm.</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D2</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_D2</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_HS_D2;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2016,8 +2565,28 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D3.Start_s.</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2030,8 +2599,28 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D3.Stop_s.</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2042,10 +2631,30 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G29" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D3.parm.</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D3</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_D3</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_HS_D3;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2058,8 +2667,28 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D4.Start_s.</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D4</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2072,8 +2701,28 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D4.Stop_s.</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2084,10 +2733,30 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G32" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D4.parm.</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D4</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_D4</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_HS_D4;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2100,8 +2769,28 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D5.Start_s.</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2114,8 +2803,28 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D5.Stop_s.</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2126,10 +2835,30 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G35" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_HS_D5.parm.</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_HS_D5</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_HS_D5</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT_HS_D5;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2142,11 +2871,31 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_YB_EN_Time.</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_YB_EN_Time</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_YB_EN_Time</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_YB_EN_Time;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2159,11 +2908,31 @@
       <c r="D37" t="s">
         <v>230</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_YB_StaticHz.</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_YB_StaticHz</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_YB_StaticHz</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_YB_StaticHz;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2176,11 +2945,31 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_YB_ADJ_Time.</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_YB_ADJ_Time</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_YB_ADJ_Time</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_YB_ADJ_Time;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2193,11 +2982,31 @@
       <c r="D39" t="s">
         <v>233</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="15" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_YB_DynamicParm.</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_YB_DynamicParm</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_YB_DynamicParm</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_YB_DynamicParm;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2210,11 +3019,31 @@
       <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_KT_StartTime.</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_KT_StartTime</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_KT_StartTime</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_KT_StartTime;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2227,50 +3056,110 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT_KT_JudgeTime.</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT_KT_JudgeTime</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT_KT_JudgeTime</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT_KT_JudgeTime;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="5" customFormat="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" s="5">
         <v>70</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_KT_DROPDOWN_START_HEAT.</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_KT_DROPDOWN_START_HEAT</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_KT_DROPDOWN_START_HEAT</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT2_KT_DROPDOWN_START_HEAT;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" s="7">
         <v>90</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_START_HEAT_Time.</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_START_HEAT_Time</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_START_HEAT_Time</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>uint16_t HEAT2_START_HEAT_Time;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -2278,13 +3167,34 @@
       <c r="D44" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="18"/>
+      <c r="G44" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D1.Start_s.</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C45" s="7">
         <v>10</v>
@@ -2292,13 +3202,34 @@
       <c r="D45" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="18"/>
+      <c r="G45" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D1.Stop_s.</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46">
         <v>1000</v>
@@ -2306,13 +3237,33 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D1.parm.</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D1</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_D1</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_D1;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -2320,13 +3271,33 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D2.Start_s.</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48">
         <v>70</v>
@@ -2334,13 +3305,33 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D2.Stop_s.</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49">
         <v>2000</v>
@@ -2348,13 +3339,33 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D2.parm.</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D2</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_D2</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_D2;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2362,13 +3373,33 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D3.Start_s.</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2376,13 +3407,33 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D3.Stop_s.</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2390,13 +3441,33 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D3.parm.</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D3</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_D3</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_D3;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2404,13 +3475,33 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D4.Start_s.</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2418,13 +3509,33 @@
       <c r="D54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D4.Stop_s.</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2432,13 +3543,33 @@
       <c r="D55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D4.parm.</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D4</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_D4</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_D4;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2446,13 +3577,33 @@
       <c r="D56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D5.Start_s.</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2460,13 +3611,33 @@
       <c r="D57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D5.Stop_s.</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D5</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2474,13 +3645,33 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_D5.parm.</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_D5</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_D5</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_D5;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2492,13 +3683,33 @@
         <f>C43+C59</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D1.Start_s.</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2510,13 +3721,33 @@
         <f>C43+C60</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D1.Stop_s.</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C61">
         <v>1000</v>
@@ -2524,13 +3755,33 @@
       <c r="D61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D1.parm.</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D1</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_OFST_D1</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_OFST_D1;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -2542,13 +3793,33 @@
         <f>C43+C62</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D2.Start_s.</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -2560,13 +3831,33 @@
         <f>C43+C63</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D2.Stop_s.</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C64">
         <v>1500</v>
@@ -2574,13 +3865,33 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D2.parm.</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D2</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_OFST_D2</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>PARM_TypeDef HEAT2_FS_OFST_D2;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C65">
         <v>90</v>
@@ -2592,13 +3903,33 @@
         <f>C43+C65</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D3.Start_s.</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C66">
         <v>120</v>
@@ -2610,13 +3941,33 @@
         <f>C43+C66</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D3.Stop_s.</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D3</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K129" si="5">IF(J66&lt;&gt;0,IF(J65&lt;&gt;0,"uint16_t "&amp;J66&amp;";","PARM_TypeDef "&amp;J66&amp;";"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -2624,13 +3975,33 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAT2_FS_OFST_D3.parm.</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="3"/>
+        <v>HEAT2_FS_OFST_D3</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="4"/>
+        <v>HEAT2_FS_OFST_D3</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_FS_OFST_D3;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2638,13 +4009,33 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="21" t="str">
+        <f t="shared" ref="G68:G131" si="6">B68&amp;"."</f>
+        <v>HEAT2_FS_OFST_D4.Start_s.</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H131" si="7">FIND(".",G68)</f>
+        <v>17</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I131" si="8">LEFT(B68,H68-1)</f>
+        <v>HEAT2_FS_OFST_D4</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="9">IF(I68=I69,,I68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2652,13 +4043,33 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_FS_OFST_D4.Stop_s.</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_FS_OFST_D4</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2666,13 +4077,33 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_FS_OFST_D4.parm.</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_FS_OFST_D4</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_FS_OFST_D4</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_FS_OFST_D4;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2680,13 +4111,33 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_FS_OFST_D5.Start_s.</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_FS_OFST_D5</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2694,13 +4145,33 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_FS_OFST_D5.Stop_s.</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_FS_OFST_D5</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2708,13 +4179,33 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_FS_OFST_D5.parm.</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_FS_OFST_D5</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_FS_OFST_D5</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_FS_OFST_D5;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74">
         <v>50</v>
@@ -2722,13 +4213,33 @@
       <c r="D74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D1.Start_s.</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C75">
         <v>55</v>
@@ -2736,27 +4247,67 @@
       <c r="D75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D1.Stop_s.</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C76">
         <v>1500</v>
       </c>
       <c r="D76" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G76" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D1.parm .</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D1</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_D1</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_D1;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77">
         <v>110</v>
@@ -2764,13 +4315,33 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D2.Start_s.</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78">
         <v>115</v>
@@ -2778,27 +4349,67 @@
       <c r="D78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D2.Stop_s.</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G79" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D2.parm .</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D2</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_D2</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_D2;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2806,13 +4417,33 @@
       <c r="D80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D3.Start_s.</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D3</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2820,27 +4451,67 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D3.Stop_s.</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G82" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D3.parm .</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D3</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_D3</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_D3;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2848,13 +4519,33 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D4.Start_s.</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D4</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2862,27 +4553,67 @@
       <c r="D84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D4.Stop_s.</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D4</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G85" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D4.parm .</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D4</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_D4</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_D4;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2890,13 +4621,33 @@
       <c r="D86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D5.Start_s.</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D5</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2904,27 +4655,67 @@
       <c r="D87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D5.Stop_s.</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D5</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G88" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_D5.parm .</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_D5</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_D5</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_D5;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2936,13 +4727,33 @@
         <f>C43+C89</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D1.Start_s.</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D1</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -2954,27 +4765,67 @@
         <f>C43+C90</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D1.Stop_s.</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C91">
         <v>1500</v>
       </c>
       <c r="D91" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G91" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D1.parm.</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D1</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_OFST_D1</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_OFST_D1;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2982,13 +4833,33 @@
       <c r="D92" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D2.Start_s.</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2996,27 +4867,67 @@
       <c r="D93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D2.Stop_s.</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G94" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D2.parm.</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D2</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_OFST_D2</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_OFST_D2;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3024,13 +4935,33 @@
       <c r="D95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D3.Start_s.</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3038,27 +4969,67 @@
       <c r="D96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D3.Stop_s.</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D3</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G97" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D3.parm.</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D3</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_OFST_D3</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_OFST_D3;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3066,13 +5037,33 @@
       <c r="D98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D4.Start_s.</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D4</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3080,27 +5071,67 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D4.Stop_s.</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D4</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G100" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D4.parm.</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D4</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_OFST_D4</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_OFST_D4;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3108,13 +5139,33 @@
       <c r="D101" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D5.Start_s.</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D5</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3122,69 +5173,170 @@
       <c r="D102" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D5.Stop_s.</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D5</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G103" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_HS_OFST_D5.parm.</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_HS_OFST_D5</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_HS_OFST_D5</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef HEAT2_HS_OFST_D5;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C104">
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E104">
         <f>C43+C104</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_YB_EN_OFST_Time.</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_YB_EN_OFST_Time</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_YB_EN_OFST_Time</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="5"/>
+        <v>uint16_t HEAT2_YB_EN_OFST_Time;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C105">
         <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E105">
         <f>C43+C105</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HEAT2_YB_ADJ_OFST_Time.</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="8"/>
+        <v>HEAT2_YB_ADJ_OFST_Time</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="9"/>
+        <v>HEAT2_YB_ADJ_OFST_Time</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="5"/>
+        <v>uint16_t HEAT2_YB_ADJ_OFST_Time;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="4" customFormat="1">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="19"/>
+      <c r="G106" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D1.Start_s.</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D1</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3194,8 +5346,28 @@
       <c r="C107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D1.Stop_s.</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D1</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="6" customFormat="1">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -3205,8 +5377,29 @@
       <c r="C108" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="20"/>
+      <c r="G108" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D1.parm.</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D1</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_FS_D1</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_FS_D1;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3216,8 +5409,28 @@
       <c r="C109">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D2.Start_s.</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D2</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3227,8 +5440,28 @@
       <c r="C110">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D2.Stop_s.</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D2</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3238,8 +5471,28 @@
       <c r="C111">
         <v>1500</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D2.parm.</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D2</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_FS_D2</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_FS_D2;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3249,8 +5502,28 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G112" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D3.Start_s.</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3260,8 +5533,28 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G113" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D3.Stop_s.</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3271,8 +5564,28 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G114" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_FS_D3.parm.</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_FS_D3</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_FS_D3</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_FS_D3;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3282,8 +5595,28 @@
       <c r="C115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G115" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D1.Start_s.</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3293,8 +5626,28 @@
       <c r="C116">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G116" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D1.Stop_s.</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3304,8 +5657,28 @@
       <c r="C117">
         <v>1500</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G117" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D1.parm.</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D1</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_HS_D1</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_HS_D1;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3315,8 +5688,28 @@
       <c r="C118">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G118" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D2.Start_s.</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D2</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3326,8 +5719,28 @@
       <c r="C119">
         <v>55</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G119" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D2.Stop_s.</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D2</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3337,8 +5750,28 @@
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G120" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D2.parm.</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D2</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_HS_D2</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_HS_D2;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3348,8 +5781,28 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G121" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D3.Start_s.</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D3</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3359,8 +5812,28 @@
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G122" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D3.Stop_s.</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D3</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3370,8 +5843,28 @@
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G123" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_HS_D3.parm.</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_HS_D3</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_HS_D3</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef STOP_HS_D3;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3381,8 +5874,28 @@
       <c r="C124">
         <v>60</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G124" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_SW2OFF_Time.</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_SW2OFF_Time</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_SW2OFF_Time</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="5"/>
+        <v>uint16_t STOP_SW2OFF_Time;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3392,8 +5905,28 @@
       <c r="C125">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G125" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>STOP_SW2OFF_KetiTemp.</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="8"/>
+        <v>STOP_SW2OFF_KetiTemp</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="9"/>
+        <v>STOP_SW2OFF_KetiTemp</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="5"/>
+        <v>uint16_t STOP_SW2OFF_KetiTemp;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3404,8 +5937,28 @@
         <v>0</v>
       </c>
       <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G126" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D1.Start_s.</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3415,8 +5968,28 @@
       <c r="C127">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D1.Stop_s.</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="4" customFormat="1">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3427,8 +6000,29 @@
         <v>1300</v>
       </c>
       <c r="D128"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F128" s="19"/>
+      <c r="G128" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D1.parm.</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D1</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="9"/>
+        <v>WIND_FS_D1</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="5"/>
+        <v>PARM_TypeDef WIND_FS_D1;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3438,8 +6032,28 @@
       <c r="C129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G129" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D2.Start_s.</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D2</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3449,8 +6063,28 @@
       <c r="C130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G130" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D2.Stop_s.</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D2</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ref="K130:K139" si="10">IF(J130&lt;&gt;0,IF(J129&lt;&gt;0,"uint16_t "&amp;J130&amp;";","PARM_TypeDef "&amp;J130&amp;";"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3460,8 +6094,28 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G131" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>WIND_FS_D2.parm.</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="8"/>
+        <v>WIND_FS_D2</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="9"/>
+        <v>WIND_FS_D2</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="10"/>
+        <v>PARM_TypeDef WIND_FS_D2;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3471,8 +6125,28 @@
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G132" s="21" t="str">
+        <f t="shared" ref="G132:G152" si="11">B132&amp;"."</f>
+        <v>WIND_FS_D3.Start_s.</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132:H152" si="12">FIND(".",G132)</f>
+        <v>11</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" ref="I132:I139" si="13">LEFT(B132,H132-1)</f>
+        <v>WIND_FS_D3</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J137" si="14">IF(I132=I133,,I132)</f>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3482,8 +6156,28 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G133" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>WIND_FS_D3.Stop_s.</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="13"/>
+        <v>WIND_FS_D3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3492,6 +6186,276 @@
       </c>
       <c r="C134">
         <v>0</v>
+      </c>
+      <c r="G134" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>WIND_FS_D3.parm.</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="13"/>
+        <v>WIND_FS_D3</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="14"/>
+        <v>WIND_FS_D3</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="10"/>
+        <v>PARM_TypeDef WIND_FS_D3;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="G135" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>PARM_LENGTH.</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="13"/>
+        <v>PARM_LENGTH</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="14"/>
+        <v>PARM_LENGTH</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="10"/>
+        <v>uint16_t PARM_LENGTH;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>361</v>
+      </c>
+      <c r="C136" s="22">
+        <v>0</v>
+      </c>
+      <c r="G136" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>PARM_CRC.</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="13"/>
+        <v>PARM_CRC</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="14"/>
+        <v>PARM_CRC</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="10"/>
+        <v>uint16_t PARM_CRC;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="G137" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J137">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="G138" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="G139" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="G140" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="G141" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="G142" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="G143" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="G144" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8">
+      <c r="G145" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8">
+      <c r="G146" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8">
+      <c r="G147" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8">
+      <c r="G148" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8">
+      <c r="G149" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8">
+      <c r="G150" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8">
+      <c r="G151" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8">
+      <c r="G152" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>.</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3509,13 +6473,13 @@
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3525,7 +6489,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3533,7 +6497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3541,7 +6505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +6513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3561,7 +6525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3573,7 +6537,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +6560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +6583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3642,7 +6606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3665,7 +6629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +6652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +6675,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +6698,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3757,7 +6721,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3780,7 +6744,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -3803,7 +6767,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -3826,7 +6790,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +6813,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +6836,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -3895,7 +6859,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3918,7 +6882,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3941,7 +6905,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3964,7 +6928,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3987,7 +6951,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4010,7 +6974,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -4033,7 +6997,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4056,7 +7020,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -4079,7 +7043,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -4102,7 +7066,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -4125,7 +7089,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -4148,7 +7112,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4171,7 +7135,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4194,7 +7158,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -4217,7 +7181,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -4240,7 +7204,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -4263,7 +7227,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -4286,7 +7250,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -4309,7 +7273,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -4332,7 +7296,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4355,7 +7319,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -4378,7 +7342,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -4401,7 +7365,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -4424,7 +7388,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -4447,7 +7411,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -4470,7 +7434,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -4493,7 +7457,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4516,7 +7480,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -4539,7 +7503,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +7526,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -4585,7 +7549,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -4608,7 +7572,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -4631,7 +7595,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -4654,7 +7618,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -4677,7 +7641,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -4700,7 +7664,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -4723,7 +7687,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -4746,7 +7710,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -4769,7 +7733,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -4792,7 +7756,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -4815,7 +7779,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -4838,7 +7802,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -4861,7 +7825,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +7848,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4907,7 +7871,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -4930,7 +7894,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -4953,7 +7917,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4976,7 +7940,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -4999,7 +7963,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -5022,7 +7986,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5045,7 +8009,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -5068,7 +8032,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +8055,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -5114,7 +8078,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5137,7 +8101,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -5160,7 +8124,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5183,7 +8147,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5206,7 +8170,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5229,7 +8193,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -5252,7 +8216,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -5275,7 +8239,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -5298,7 +8262,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -5321,7 +8285,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -5344,7 +8308,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -5367,7 +8331,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -5390,7 +8354,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5413,7 +8377,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +8400,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -5459,7 +8423,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5482,7 +8446,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -5505,7 +8469,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -5528,7 +8492,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -5551,7 +8515,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -5574,7 +8538,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -5597,7 +8561,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -5620,7 +8584,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -5643,7 +8607,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -5666,7 +8630,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -5689,7 +8653,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -5712,7 +8676,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5735,7 +8699,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -5758,7 +8722,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -5781,7 +8745,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -5804,7 +8768,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -5827,7 +8791,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -5850,7 +8814,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -5873,7 +8837,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -5896,7 +8860,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -5919,7 +8883,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -5942,7 +8906,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -5965,7 +8929,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -5988,7 +8952,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -6011,7 +8975,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -6034,7 +8998,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -6057,7 +9021,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -6080,7 +9044,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -6103,7 +9067,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -6126,7 +9090,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -6149,7 +9113,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -6172,7 +9136,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -6195,7 +9159,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -6218,7 +9182,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -6241,7 +9205,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -6264,7 +9228,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -6287,7 +9251,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>217</v>
       </c>
@@ -6310,7 +9274,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -6333,7 +9297,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -6356,7 +9320,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -6379,7 +9343,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -6402,7 +9366,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -6425,7 +9389,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6448,7 +9412,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6474,12 +9438,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="13">
         <v>0</v>
       </c>
@@ -6492,7 +9456,7 @@
         <v>0,5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -6505,7 +9469,7 @@
         <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -6518,7 +9482,7 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6531,7 +9495,7 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8">
         <v>10</v>
       </c>
@@ -6544,7 +9508,7 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="8">
         <v>1000</v>
       </c>
@@ -6557,7 +9521,7 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="8">
         <v>50</v>
       </c>
@@ -6570,7 +9534,7 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="8">
         <v>60</v>
       </c>
@@ -6583,7 +9547,7 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="8">
         <v>1500</v>
       </c>
@@ -6596,7 +9560,7 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="8">
         <v>90</v>
       </c>
@@ -6609,7 +9573,7 @@
         <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
         <v>120</v>
       </c>
@@ -6622,7 +9586,7 @@
         <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
         <v>2000</v>
       </c>
@@ -6635,7 +9599,7 @@
         <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -6648,7 +9612,7 @@
         <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -6661,7 +9625,7 @@
         <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -6674,7 +9638,7 @@
         <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="8">
         <v>0</v>
       </c>
@@ -6687,7 +9651,7 @@
         <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -6700,7 +9664,7 @@
         <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="8">
         <v>0</v>
       </c>
@@ -6713,7 +9677,7 @@
         <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -6726,7 +9690,7 @@
         <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -6739,7 +9703,7 @@
         <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="8">
         <v>8</v>
       </c>
@@ -6752,7 +9716,7 @@
         <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
         <v>500</v>
       </c>
@@ -6765,7 +9729,7 @@
         <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
         <v>8</v>
       </c>
@@ -6778,7 +9742,7 @@
         <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
         <v>12</v>
       </c>
@@ -6791,7 +9755,7 @@
         <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="8">
         <v>1400</v>
       </c>
@@ -6804,7 +9768,7 @@
         <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="8">
         <v>0</v>
       </c>
@@ -6817,7 +9781,7 @@
         <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="8">
         <v>0</v>
       </c>
@@ -6830,7 +9794,7 @@
         <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="8">
         <v>0</v>
       </c>
@@ -6843,7 +9807,7 @@
         <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="8">
         <v>0</v>
       </c>
@@ -6856,7 +9820,7 @@
         <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="8">
         <v>0</v>
       </c>
@@ -6869,7 +9833,7 @@
         <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="8">
         <v>0</v>
       </c>
@@ -6882,7 +9846,7 @@
         <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="8">
         <v>0</v>
       </c>
@@ -6895,7 +9859,7 @@
         <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="8">
         <v>0</v>
       </c>
@@ -6908,7 +9872,7 @@
         <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="8">
         <v>0</v>
       </c>
@@ -6921,7 +9885,7 @@
         <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="8">
         <v>60</v>
       </c>
@@ -6934,7 +9898,7 @@
         <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
         <v>60</v>
       </c>
@@ -6947,7 +9911,7 @@
         <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
         <v>65</v>
       </c>
@@ -6960,7 +9924,7 @@
         <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -6973,7 +9937,7 @@
         <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="8">
         <v>60</v>
       </c>
@@ -6986,7 +9950,7 @@
         <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="8">
         <v>150</v>
       </c>
@@ -6999,7 +9963,7 @@
         <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -7012,7 +9976,7 @@
         <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="10">
         <v>90</v>
       </c>
@@ -7025,7 +9989,7 @@
         <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="10">
         <v>0</v>
       </c>
@@ -7038,7 +10002,7 @@
         <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="10">
         <v>10</v>
       </c>
@@ -7051,7 +10015,7 @@
         <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="8">
         <v>1000</v>
       </c>
@@ -7064,7 +10028,7 @@
         <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="8">
         <v>60</v>
       </c>
@@ -7077,7 +10041,7 @@
         <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="8">
         <v>70</v>
       </c>
@@ -7090,7 +10054,7 @@
         <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="8">
         <v>2000</v>
       </c>
@@ -7103,7 +10067,7 @@
         <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="8">
         <v>0</v>
       </c>
@@ -7116,7 +10080,7 @@
         <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="8">
         <v>0</v>
       </c>
@@ -7129,7 +10093,7 @@
         <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="8">
         <v>0</v>
       </c>
@@ -7142,7 +10106,7 @@
         <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="8">
         <v>0</v>
       </c>
@@ -7155,7 +10119,7 @@
         <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="8">
         <v>0</v>
       </c>
@@ -7168,7 +10132,7 @@
         <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="8">
         <v>0</v>
       </c>
@@ -7181,7 +10145,7 @@
         <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="8">
         <v>0</v>
       </c>
@@ -7194,7 +10158,7 @@
         <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="8">
         <v>0</v>
       </c>
@@ -7207,7 +10171,7 @@
         <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="8">
         <v>0</v>
       </c>
@@ -7220,7 +10184,7 @@
         <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="8">
         <v>1</v>
       </c>
@@ -7233,7 +10197,7 @@
         <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="8">
         <v>10</v>
       </c>
@@ -7246,7 +10210,7 @@
         <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="8">
         <v>1000</v>
       </c>
@@ -7259,7 +10223,7 @@
         <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="8">
         <v>50</v>
       </c>
@@ -7272,7 +10236,7 @@
         <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -7285,7 +10249,7 @@
         <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="8">
         <v>1500</v>
       </c>
@@ -7298,7 +10262,7 @@
         <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="8">
         <v>90</v>
       </c>
@@ -7311,7 +10275,7 @@
         <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="8">
         <v>120</v>
       </c>
@@ -7324,7 +10288,7 @@
         <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="8">
         <v>2000</v>
       </c>
@@ -7337,7 +10301,7 @@
         <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="8">
         <v>0</v>
       </c>
@@ -7350,7 +10314,7 @@
         <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="8">
         <v>0</v>
       </c>
@@ -7363,7 +10327,7 @@
         <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="8">
         <v>0</v>
       </c>
@@ -7376,7 +10340,7 @@
         <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="8">
         <v>0</v>
       </c>
@@ -7389,7 +10353,7 @@
         <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="8">
         <v>0</v>
       </c>
@@ -7402,7 +10366,7 @@
         <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="8">
         <v>0</v>
       </c>
@@ -7415,7 +10379,7 @@
         <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="8">
         <v>50</v>
       </c>
@@ -7428,7 +10392,7 @@
         <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="8">
         <v>55</v>
       </c>
@@ -7441,7 +10405,7 @@
         <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="8">
         <v>1500</v>
       </c>
@@ -7454,7 +10418,7 @@
         <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="8">
         <v>110</v>
       </c>
@@ -7467,7 +10431,7 @@
         <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="8">
         <v>115</v>
       </c>
@@ -7480,7 +10444,7 @@
         <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="8">
         <v>0</v>
       </c>
@@ -7493,7 +10457,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="8">
         <v>0</v>
       </c>
@@ -7506,7 +10470,7 @@
         <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="8">
         <v>0</v>
       </c>
@@ -7519,7 +10483,7 @@
         <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="8">
         <v>0</v>
       </c>
@@ -7532,7 +10496,7 @@
         <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="8">
         <v>0</v>
       </c>
@@ -7545,7 +10509,7 @@
         <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="8">
         <v>0</v>
       </c>
@@ -7558,7 +10522,7 @@
         <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="8">
         <v>0</v>
       </c>
@@ -7571,7 +10535,7 @@
         <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="8">
         <v>0</v>
       </c>
@@ -7584,7 +10548,7 @@
         <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="8">
         <v>0</v>
       </c>
@@ -7597,7 +10561,7 @@
         <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="8">
         <v>0</v>
       </c>
@@ -7610,7 +10574,7 @@
         <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="8">
         <v>4</v>
       </c>
@@ -7623,7 +10587,7 @@
         <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="8">
         <v>10</v>
       </c>
@@ -7636,7 +10600,7 @@
         <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="8">
         <v>1500</v>
       </c>
@@ -7649,7 +10613,7 @@
         <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="8">
         <v>0</v>
       </c>
@@ -7662,7 +10626,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="8">
         <v>0</v>
       </c>
@@ -7675,7 +10639,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="8">
         <v>0</v>
       </c>
@@ -7688,7 +10652,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="8">
         <v>0</v>
       </c>
@@ -7701,7 +10665,7 @@
         <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="8">
         <v>0</v>
       </c>
@@ -7714,7 +10678,7 @@
         <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="8">
         <v>0</v>
       </c>
@@ -7727,7 +10691,7 @@
         <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="8">
         <v>0</v>
       </c>
@@ -7740,7 +10704,7 @@
         <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="8">
         <v>0</v>
       </c>
@@ -7753,7 +10717,7 @@
         <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="8">
         <v>0</v>
       </c>
@@ -7766,7 +10730,7 @@
         <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="8">
         <v>0</v>
       </c>
@@ -7779,7 +10743,7 @@
         <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="8">
         <v>0</v>
       </c>
@@ -7792,7 +10756,7 @@
         <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="8">
         <v>0</v>
       </c>
@@ -7805,7 +10769,7 @@
         <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="8">
         <v>60</v>
       </c>
@@ -7818,7 +10782,7 @@
         <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="8">
         <v>65</v>
       </c>
@@ -7831,7 +10795,7 @@
         <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="11">
         <v>0</v>
       </c>
@@ -7844,7 +10808,7 @@
         <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="8">
         <v>10</v>
       </c>
@@ -7857,7 +10821,7 @@
         <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="12">
         <v>2000</v>
       </c>
@@ -7870,7 +10834,7 @@
         <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="8">
         <v>55</v>
       </c>
@@ -7883,7 +10847,7 @@
         <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="8">
         <v>60</v>
       </c>
@@ -7896,7 +10860,7 @@
         <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="8">
         <v>1500</v>
       </c>
@@ -7909,7 +10873,7 @@
         <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="8">
         <v>0</v>
       </c>
@@ -7922,7 +10886,7 @@
         <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="8">
         <v>0</v>
       </c>
@@ -7935,7 +10899,7 @@
         <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="8">
         <v>0</v>
       </c>
@@ -7948,7 +10912,7 @@
         <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="8">
         <v>10</v>
       </c>
@@ -7961,7 +10925,7 @@
         <v>10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="8">
         <v>15</v>
       </c>
@@ -7974,7 +10938,7 @@
         <v>15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="8">
         <v>1500</v>
       </c>
@@ -7987,7 +10951,7 @@
         <v>1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="8">
         <v>50</v>
       </c>
@@ -8000,7 +10964,7 @@
         <v>50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="8">
         <v>55</v>
       </c>
@@ -8013,7 +10977,7 @@
         <v>55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="8">
         <v>0</v>
       </c>
@@ -8026,7 +10990,7 @@
         <v>0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="8">
         <v>0</v>
       </c>
@@ -8039,7 +11003,7 @@
         <v>0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="8">
         <v>0</v>
       </c>
@@ -8052,7 +11016,7 @@
         <v>0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="8">
         <v>0</v>
       </c>
@@ -8065,7 +11029,7 @@
         <v>0,60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="8">
         <v>60</v>
       </c>
@@ -8078,7 +11042,7 @@
         <v>60,70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="8">
         <v>70</v>
       </c>
@@ -8091,7 +11055,7 @@
         <v>70,0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="11">
         <v>0</v>
       </c>
@@ -8104,7 +11068,7 @@
         <v>0,10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="8">
         <v>10</v>
       </c>
@@ -8117,7 +11081,7 @@
         <v>10,2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="8">
         <v>2000</v>
       </c>
@@ -8130,7 +11094,7 @@
         <v>2000,0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="8">
         <v>0</v>
       </c>
@@ -8143,7 +11107,7 @@
         <v>0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="8">
         <v>0</v>
       </c>
@@ -8156,7 +11120,7 @@
         <v>0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="8">
         <v>0</v>
       </c>
@@ -8169,7 +11133,7 @@
         <v>0,0,0,0,</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="8">
         <v>0</v>
       </c>
@@ -8182,7 +11146,7 @@
         <v>0,0,0,</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="8">
         <v>0</v>
       </c>
@@ -8195,7 +11159,7 @@
         <v>0,0,</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="8">
         <v>0</v>
       </c>

--- a/PC_GuiDemo/heatparm.xlsx
+++ b/PC_GuiDemo/heatparm.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="heatparm" sheetId="2" r:id="rId2"/>
     <sheet name="RunBackParm" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="HeatLogFile2018_02_23_233256" localSheetId="2">RunBackParm!$A$3:$B$133</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="419">
   <si>
     <t>寄存器偏移量</t>
   </si>
@@ -1147,23 +1148,194 @@
   </si>
   <si>
     <t>PARM_CRC</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_KT_START_TEMP;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_KETI_RISE_TEMP;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_EN_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_FS_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_EN_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_HS_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_YB_EN_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_YB_StaticHz;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_YB_ADJ_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_YB_DynamicParm;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_KT_StartTime;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT_KT_JudgeTime;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_KT_DROPDOWN_START_HEAT;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_START_HEAT_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_OFST_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_OFST_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_OFST_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_OFST_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_FS_OFST_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_OFST_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_OFST_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_OFST_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_OFST_D4;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_HS_OFST_D5;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_YB_EN_OFST_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.HEAT2_YB_ADJ_OFST_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_FS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_FS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_FS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_HS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_HS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_HS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_SW2OFF_Time;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.STOP_SW2OFF_KetiTemp;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.WIND_FS_D1;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.WIND_FS_D2;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.WIND_FS_D3;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.PARM_LENGTH;</t>
+  </si>
+  <si>
+    <t>pheatParm-&gt;st.PARM_CRC;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1171,7 +1343,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1202,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1212,14 +1384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1240,9 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1262,7 +1429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1554,9 +1721,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1564,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1572,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1580,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1588,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1604,27 +1771,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="33" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="48.7109375" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1807,7 @@
       <c r="E1" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -1650,7 +1817,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1664,10 +1831,10 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="str">
+      <c r="G2" s="15" t="str">
         <f>B2&amp;"."</f>
         <v>HEAT_KT_START_TEMP.</v>
       </c>
@@ -1688,7 +1855,7 @@
         <v>uint16_t HEAT_KT_START_TEMP;</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1701,10 +1868,10 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="15" t="str">
         <f>B3&amp;"."</f>
         <v>HEAT_KETI_RISE_TEMP.</v>
       </c>
@@ -1725,7 +1892,7 @@
         <v>uint16_t HEAT_KETI_RISE_TEMP;</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1738,10 +1905,10 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="15" t="str">
         <f t="shared" ref="G4:G67" si="1">B4&amp;"."</f>
         <v>HEAT_FS_EN_Time.</v>
       </c>
@@ -1762,7 +1929,7 @@
         <v>uint16_t HEAT_FS_EN_Time;</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1775,10 +1942,10 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D1.Start_s.</v>
       </c>
@@ -1799,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1812,10 +1979,10 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D1.Stop_s.</v>
       </c>
@@ -1836,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1849,10 +2016,10 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D1.parm.</v>
       </c>
@@ -1873,7 +2040,7 @@
         <v>PARM_TypeDef HEAT_FS_D1;</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1886,10 +2053,10 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D2.Start_s.</v>
       </c>
@@ -1910,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1923,10 +2090,10 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D2.Stop_s.</v>
       </c>
@@ -1947,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1960,10 +2127,10 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D2.parm.</v>
       </c>
@@ -1984,7 +2151,7 @@
         <v>PARM_TypeDef HEAT_FS_D2;</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1997,10 +2164,10 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D3.Start_s.</v>
       </c>
@@ -2021,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2034,10 +2201,10 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="21" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D3.Stop_s.</v>
       </c>
@@ -2058,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2071,10 +2238,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D3.parm.</v>
       </c>
@@ -2095,7 +2262,7 @@
         <v>PARM_TypeDef HEAT_FS_D3;</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2108,10 +2275,10 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D4.Start_s.</v>
       </c>
@@ -2132,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2145,10 +2312,10 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D4.Stop_s.</v>
       </c>
@@ -2169,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2182,10 +2349,10 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="21" t="str">
+      <c r="G16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D4.parm.</v>
       </c>
@@ -2206,7 +2373,7 @@
         <v>PARM_TypeDef HEAT_FS_D4;</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2219,10 +2386,10 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="21" t="str">
+      <c r="G17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D5.Start_s.</v>
       </c>
@@ -2243,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2256,10 +2423,10 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="G18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D5.Stop_s.</v>
       </c>
@@ -2280,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2293,10 +2460,10 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_FS_D5.parm.</v>
       </c>
@@ -2317,7 +2484,7 @@
         <v>PARM_TypeDef HEAT_FS_D5;</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2327,7 +2494,7 @@
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_EN_Time.</v>
       </c>
@@ -2348,7 +2515,7 @@
         <v>uint16_t HEAT_HS_EN_Time;</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2361,7 +2528,7 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D1.Start_s.</v>
       </c>
@@ -2382,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2395,7 +2562,7 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G22" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D1.Stop_s.</v>
       </c>
@@ -2416,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2429,7 +2596,7 @@
       <c r="D23" t="s">
         <v>354</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D1.parm.</v>
       </c>
@@ -2450,7 +2617,7 @@
         <v>PARM_TypeDef HEAT_HS_D1;</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2463,7 +2630,7 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="21" t="str">
+      <c r="G24" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D2.Start_s.</v>
       </c>
@@ -2484,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2497,7 +2664,7 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="21" t="str">
+      <c r="G25" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D2.Stop_s.</v>
       </c>
@@ -2518,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2531,7 +2698,7 @@
       <c r="D26" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="G26" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D2.parm.</v>
       </c>
@@ -2552,7 +2719,7 @@
         <v>PARM_TypeDef HEAT_HS_D2;</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2565,7 +2732,7 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D3.Start_s.</v>
       </c>
@@ -2586,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2599,7 +2766,7 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="G28" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D3.Stop_s.</v>
       </c>
@@ -2620,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2633,7 +2800,7 @@
       <c r="D29" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="G29" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D3.parm.</v>
       </c>
@@ -2654,7 +2821,7 @@
         <v>PARM_TypeDef HEAT_HS_D3;</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2667,7 +2834,7 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="G30" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D4.Start_s.</v>
       </c>
@@ -2688,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2701,7 +2868,7 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="G31" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D4.Stop_s.</v>
       </c>
@@ -2722,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2735,7 +2902,7 @@
       <c r="D32" t="s">
         <v>354</v>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="G32" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D4.parm.</v>
       </c>
@@ -2756,7 +2923,7 @@
         <v>PARM_TypeDef HEAT_HS_D4;</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2769,7 +2936,7 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="21" t="str">
+      <c r="G33" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D5.Start_s.</v>
       </c>
@@ -2790,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2803,7 +2970,7 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="21" t="str">
+      <c r="G34" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D5.Stop_s.</v>
       </c>
@@ -2824,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2837,7 +3004,7 @@
       <c r="D35" t="s">
         <v>354</v>
       </c>
-      <c r="G35" s="21" t="str">
+      <c r="G35" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_HS_D5.parm.</v>
       </c>
@@ -2858,7 +3025,7 @@
         <v>PARM_TypeDef HEAT_HS_D5;</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2871,10 +3038,10 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G36" s="21" t="str">
+      <c r="G36" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_YB_EN_Time.</v>
       </c>
@@ -2895,7 +3062,7 @@
         <v>uint16_t HEAT_YB_EN_Time;</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2908,10 +3075,10 @@
       <c r="D37" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="21" t="str">
+      <c r="G37" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_YB_StaticHz.</v>
       </c>
@@ -2932,7 +3099,7 @@
         <v>uint16_t HEAT_YB_StaticHz;</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2945,10 +3112,10 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="21" t="str">
+      <c r="G38" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_YB_ADJ_Time.</v>
       </c>
@@ -2969,7 +3136,7 @@
         <v>uint16_t HEAT_YB_ADJ_Time;</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45">
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2982,10 +3149,10 @@
       <c r="D39" t="s">
         <v>233</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G39" s="21" t="str">
+      <c r="G39" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_YB_DynamicParm.</v>
       </c>
@@ -3006,7 +3173,7 @@
         <v>uint16_t HEAT_YB_DynamicParm;</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3019,10 +3186,10 @@
       <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="21" t="str">
+      <c r="G40" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_KT_StartTime.</v>
       </c>
@@ -3043,7 +3210,7 @@
         <v>uint16_t HEAT_KT_StartTime;</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30">
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3056,10 +3223,10 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="21" t="str">
+      <c r="G41" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT_KT_JudgeTime.</v>
       </c>
@@ -3080,7 +3247,7 @@
         <v>uint16_t HEAT_KT_JudgeTime;</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="5" customFormat="1">
+    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3093,10 +3260,10 @@
       <c r="D42" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="G42" s="21" t="str">
+      <c r="G42" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_KT_DROPDOWN_START_HEAT.</v>
       </c>
@@ -3117,7 +3284,7 @@
         <v>uint16_t HEAT2_KT_DROPDOWN_START_HEAT;</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1">
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3130,10 +3297,10 @@
       <c r="D43" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="G43" s="21" t="str">
+      <c r="G43" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_START_HEAT_Time.</v>
       </c>
@@ -3154,7 +3321,7 @@
         <v>uint16_t HEAT2_START_HEAT_Time;</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1">
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3167,8 +3334,8 @@
       <c r="D44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="21" t="str">
+      <c r="F44" s="12"/>
+      <c r="G44" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D1.Start_s.</v>
       </c>
@@ -3189,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1">
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3202,8 +3369,8 @@
       <c r="D45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="21" t="str">
+      <c r="F45" s="12"/>
+      <c r="G45" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D1.Stop_s.</v>
       </c>
@@ -3224,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3237,7 +3404,7 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G46" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D1.parm.</v>
       </c>
@@ -3258,7 +3425,7 @@
         <v>PARM_TypeDef HEAT2_FS_D1;</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3271,7 +3438,7 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G47" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D2.Start_s.</v>
       </c>
@@ -3292,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3305,7 +3472,7 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G48" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D2.Stop_s.</v>
       </c>
@@ -3326,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3339,7 +3506,7 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G49" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D2.parm.</v>
       </c>
@@ -3360,7 +3527,7 @@
         <v>PARM_TypeDef HEAT2_FS_D2;</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3373,7 +3540,7 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D3.Start_s.</v>
       </c>
@@ -3394,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3407,7 +3574,7 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="21" t="str">
+      <c r="G51" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D3.Stop_s.</v>
       </c>
@@ -3428,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3441,7 +3608,7 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="21" t="str">
+      <c r="G52" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D3.parm.</v>
       </c>
@@ -3462,7 +3629,7 @@
         <v>PARM_TypeDef HEAT2_FS_D3;</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3475,7 +3642,7 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="21" t="str">
+      <c r="G53" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D4.Start_s.</v>
       </c>
@@ -3496,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3509,7 +3676,7 @@
       <c r="D54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="21" t="str">
+      <c r="G54" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D4.Stop_s.</v>
       </c>
@@ -3530,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3543,7 +3710,7 @@
       <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="21" t="str">
+      <c r="G55" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D4.parm.</v>
       </c>
@@ -3564,7 +3731,7 @@
         <v>PARM_TypeDef HEAT2_FS_D4;</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3577,7 +3744,7 @@
       <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="21" t="str">
+      <c r="G56" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D5.Start_s.</v>
       </c>
@@ -3598,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3611,7 +3778,7 @@
       <c r="D57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="21" t="str">
+      <c r="G57" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D5.Stop_s.</v>
       </c>
@@ -3632,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3645,7 +3812,7 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="21" t="str">
+      <c r="G58" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_D5.parm.</v>
       </c>
@@ -3666,7 +3833,7 @@
         <v>PARM_TypeDef HEAT2_FS_D5;</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3683,7 +3850,7 @@
         <f>C43+C59</f>
         <v>91</v>
       </c>
-      <c r="G59" s="21" t="str">
+      <c r="G59" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D1.Start_s.</v>
       </c>
@@ -3704,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3721,7 +3888,7 @@
         <f>C43+C60</f>
         <v>100</v>
       </c>
-      <c r="G60" s="21" t="str">
+      <c r="G60" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D1.Stop_s.</v>
       </c>
@@ -3742,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3755,7 +3922,7 @@
       <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="21" t="str">
+      <c r="G61" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D1.parm.</v>
       </c>
@@ -3776,7 +3943,7 @@
         <v>PARM_TypeDef HEAT2_FS_OFST_D1;</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3793,7 +3960,7 @@
         <f>C43+C62</f>
         <v>140</v>
       </c>
-      <c r="G62" s="21" t="str">
+      <c r="G62" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D2.Start_s.</v>
       </c>
@@ -3814,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3831,7 +3998,7 @@
         <f>C43+C63</f>
         <v>150</v>
       </c>
-      <c r="G63" s="21" t="str">
+      <c r="G63" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D2.Stop_s.</v>
       </c>
@@ -3852,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3865,7 +4032,7 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="21" t="str">
+      <c r="G64" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D2.parm.</v>
       </c>
@@ -3886,7 +4053,7 @@
         <v>PARM_TypeDef HEAT2_FS_OFST_D2;</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3903,7 +4070,7 @@
         <f>C43+C65</f>
         <v>180</v>
       </c>
-      <c r="G65" s="21" t="str">
+      <c r="G65" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D3.Start_s.</v>
       </c>
@@ -3924,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3941,7 +4108,7 @@
         <f>C43+C66</f>
         <v>210</v>
       </c>
-      <c r="G66" s="21" t="str">
+      <c r="G66" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D3.Stop_s.</v>
       </c>
@@ -3962,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3975,7 +4142,7 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="21" t="str">
+      <c r="G67" s="15" t="str">
         <f t="shared" si="1"/>
         <v>HEAT2_FS_OFST_D3.parm.</v>
       </c>
@@ -3996,7 +4163,7 @@
         <v>PARM_TypeDef HEAT2_FS_OFST_D3;</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4009,7 +4176,7 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="21" t="str">
+      <c r="G68" s="15" t="str">
         <f t="shared" ref="G68:G131" si="6">B68&amp;"."</f>
         <v>HEAT2_FS_OFST_D4.Start_s.</v>
       </c>
@@ -4030,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4043,7 +4210,7 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="21" t="str">
+      <c r="G69" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_FS_OFST_D4.Stop_s.</v>
       </c>
@@ -4064,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4077,7 +4244,7 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="21" t="str">
+      <c r="G70" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_FS_OFST_D4.parm.</v>
       </c>
@@ -4098,7 +4265,7 @@
         <v>PARM_TypeDef HEAT2_FS_OFST_D4;</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4111,7 +4278,7 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="21" t="str">
+      <c r="G71" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_FS_OFST_D5.Start_s.</v>
       </c>
@@ -4132,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4145,7 +4312,7 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="21" t="str">
+      <c r="G72" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_FS_OFST_D5.Stop_s.</v>
       </c>
@@ -4166,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4179,7 +4346,7 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="21" t="str">
+      <c r="G73" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_FS_OFST_D5.parm.</v>
       </c>
@@ -4200,7 +4367,7 @@
         <v>PARM_TypeDef HEAT2_FS_OFST_D5;</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4213,7 +4380,7 @@
       <c r="D74" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="21" t="str">
+      <c r="G74" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D1.Start_s.</v>
       </c>
@@ -4234,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4247,7 +4414,7 @@
       <c r="D75" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="21" t="str">
+      <c r="G75" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D1.Stop_s.</v>
       </c>
@@ -4268,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4281,7 +4448,7 @@
       <c r="D76" t="s">
         <v>354</v>
       </c>
-      <c r="G76" s="21" t="str">
+      <c r="G76" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D1.parm .</v>
       </c>
@@ -4302,7 +4469,7 @@
         <v>PARM_TypeDef HEAT2_HS_D1;</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4315,7 +4482,7 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="21" t="str">
+      <c r="G77" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D2.Start_s.</v>
       </c>
@@ -4336,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4349,7 +4516,7 @@
       <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="21" t="str">
+      <c r="G78" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D2.Stop_s.</v>
       </c>
@@ -4370,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4383,7 +4550,7 @@
       <c r="D79" t="s">
         <v>354</v>
       </c>
-      <c r="G79" s="21" t="str">
+      <c r="G79" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D2.parm .</v>
       </c>
@@ -4404,7 +4571,7 @@
         <v>PARM_TypeDef HEAT2_HS_D2;</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4417,7 +4584,7 @@
       <c r="D80" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="21" t="str">
+      <c r="G80" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D3.Start_s.</v>
       </c>
@@ -4438,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4451,7 +4618,7 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="21" t="str">
+      <c r="G81" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D3.Stop_s.</v>
       </c>
@@ -4472,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4485,7 +4652,7 @@
       <c r="D82" t="s">
         <v>354</v>
       </c>
-      <c r="G82" s="21" t="str">
+      <c r="G82" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D3.parm .</v>
       </c>
@@ -4506,7 +4673,7 @@
         <v>PARM_TypeDef HEAT2_HS_D3;</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4519,7 +4686,7 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="21" t="str">
+      <c r="G83" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D4.Start_s.</v>
       </c>
@@ -4540,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4553,7 +4720,7 @@
       <c r="D84" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="21" t="str">
+      <c r="G84" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D4.Stop_s.</v>
       </c>
@@ -4574,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4587,7 +4754,7 @@
       <c r="D85" t="s">
         <v>354</v>
       </c>
-      <c r="G85" s="21" t="str">
+      <c r="G85" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D4.parm .</v>
       </c>
@@ -4608,7 +4775,7 @@
         <v>PARM_TypeDef HEAT2_HS_D4;</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4621,7 +4788,7 @@
       <c r="D86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="21" t="str">
+      <c r="G86" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D5.Start_s.</v>
       </c>
@@ -4642,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4655,7 +4822,7 @@
       <c r="D87" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="21" t="str">
+      <c r="G87" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D5.Stop_s.</v>
       </c>
@@ -4676,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4689,7 +4856,7 @@
       <c r="D88" t="s">
         <v>354</v>
       </c>
-      <c r="G88" s="21" t="str">
+      <c r="G88" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_D5.parm .</v>
       </c>
@@ -4710,7 +4877,7 @@
         <v>PARM_TypeDef HEAT2_HS_D5;</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4727,7 +4894,7 @@
         <f>C43+C89</f>
         <v>94</v>
       </c>
-      <c r="G89" s="21" t="str">
+      <c r="G89" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D1.Start_s.</v>
       </c>
@@ -4748,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4765,7 +4932,7 @@
         <f>C43+C90</f>
         <v>100</v>
       </c>
-      <c r="G90" s="21" t="str">
+      <c r="G90" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D1.Stop_s.</v>
       </c>
@@ -4786,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4799,7 +4966,7 @@
       <c r="D91" t="s">
         <v>354</v>
       </c>
-      <c r="G91" s="21" t="str">
+      <c r="G91" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D1.parm.</v>
       </c>
@@ -4820,7 +4987,7 @@
         <v>PARM_TypeDef HEAT2_HS_OFST_D1;</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4833,7 +5000,7 @@
       <c r="D92" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="21" t="str">
+      <c r="G92" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D2.Start_s.</v>
       </c>
@@ -4854,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4867,7 +5034,7 @@
       <c r="D93" t="s">
         <v>9</v>
       </c>
-      <c r="G93" s="21" t="str">
+      <c r="G93" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D2.Stop_s.</v>
       </c>
@@ -4888,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4901,7 +5068,7 @@
       <c r="D94" t="s">
         <v>354</v>
       </c>
-      <c r="G94" s="21" t="str">
+      <c r="G94" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D2.parm.</v>
       </c>
@@ -4922,7 +5089,7 @@
         <v>PARM_TypeDef HEAT2_HS_OFST_D2;</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4935,7 +5102,7 @@
       <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="21" t="str">
+      <c r="G95" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D3.Start_s.</v>
       </c>
@@ -4956,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4969,7 +5136,7 @@
       <c r="D96" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="21" t="str">
+      <c r="G96" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D3.Stop_s.</v>
       </c>
@@ -4990,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5003,7 +5170,7 @@
       <c r="D97" t="s">
         <v>354</v>
       </c>
-      <c r="G97" s="21" t="str">
+      <c r="G97" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D3.parm.</v>
       </c>
@@ -5024,7 +5191,7 @@
         <v>PARM_TypeDef HEAT2_HS_OFST_D3;</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5037,7 +5204,7 @@
       <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="21" t="str">
+      <c r="G98" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D4.Start_s.</v>
       </c>
@@ -5058,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5071,7 +5238,7 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="21" t="str">
+      <c r="G99" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D4.Stop_s.</v>
       </c>
@@ -5092,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5105,7 +5272,7 @@
       <c r="D100" t="s">
         <v>354</v>
       </c>
-      <c r="G100" s="21" t="str">
+      <c r="G100" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D4.parm.</v>
       </c>
@@ -5126,7 +5293,7 @@
         <v>PARM_TypeDef HEAT2_HS_OFST_D4;</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5139,7 +5306,7 @@
       <c r="D101" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="21" t="str">
+      <c r="G101" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D5.Start_s.</v>
       </c>
@@ -5160,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5173,7 +5340,7 @@
       <c r="D102" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="21" t="str">
+      <c r="G102" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D5.Stop_s.</v>
       </c>
@@ -5194,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5207,7 +5374,7 @@
       <c r="D103" t="s">
         <v>354</v>
       </c>
-      <c r="G103" s="21" t="str">
+      <c r="G103" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_HS_OFST_D5.parm.</v>
       </c>
@@ -5228,7 +5395,7 @@
         <v>PARM_TypeDef HEAT2_HS_OFST_D5;</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5245,7 +5412,7 @@
         <f>C43+C104</f>
         <v>150</v>
       </c>
-      <c r="G104" s="21" t="str">
+      <c r="G104" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_YB_EN_OFST_Time.</v>
       </c>
@@ -5266,7 +5433,7 @@
         <v>uint16_t HEAT2_YB_EN_OFST_Time;</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5283,7 +5450,7 @@
         <f>C43+C105</f>
         <v>155</v>
       </c>
-      <c r="G105" s="21" t="str">
+      <c r="G105" s="15" t="str">
         <f t="shared" si="6"/>
         <v>HEAT2_YB_ADJ_OFST_Time.</v>
       </c>
@@ -5304,7 +5471,7 @@
         <v>uint16_t HEAT2_YB_ADJ_OFST_Time;</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="4" customFormat="1">
+    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -5314,8 +5481,8 @@
       <c r="C106" s="4">
         <v>0</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="21" t="str">
+      <c r="F106" s="13"/>
+      <c r="G106" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D1.Start_s.</v>
       </c>
@@ -5336,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5346,7 +5513,7 @@
       <c r="C107">
         <v>10</v>
       </c>
-      <c r="G107" s="21" t="str">
+      <c r="G107" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D1.Stop_s.</v>
       </c>
@@ -5367,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="6" customFormat="1">
+    <row r="108" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -5377,8 +5544,8 @@
       <c r="C108" s="6">
         <v>2000</v>
       </c>
-      <c r="F108" s="20"/>
-      <c r="G108" s="21" t="str">
+      <c r="F108" s="14"/>
+      <c r="G108" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D1.parm.</v>
       </c>
@@ -5399,7 +5566,7 @@
         <v>PARM_TypeDef STOP_FS_D1;</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5409,7 +5576,7 @@
       <c r="C109">
         <v>55</v>
       </c>
-      <c r="G109" s="21" t="str">
+      <c r="G109" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D2.Start_s.</v>
       </c>
@@ -5430,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5440,7 +5607,7 @@
       <c r="C110">
         <v>60</v>
       </c>
-      <c r="G110" s="21" t="str">
+      <c r="G110" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D2.Stop_s.</v>
       </c>
@@ -5461,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5471,7 +5638,7 @@
       <c r="C111">
         <v>1500</v>
       </c>
-      <c r="G111" s="21" t="str">
+      <c r="G111" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D2.parm.</v>
       </c>
@@ -5492,7 +5659,7 @@
         <v>PARM_TypeDef STOP_FS_D2;</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5502,7 +5669,7 @@
       <c r="C112">
         <v>0</v>
       </c>
-      <c r="G112" s="21" t="str">
+      <c r="G112" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D3.Start_s.</v>
       </c>
@@ -5523,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5533,7 +5700,7 @@
       <c r="C113">
         <v>0</v>
       </c>
-      <c r="G113" s="21" t="str">
+      <c r="G113" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D3.Stop_s.</v>
       </c>
@@ -5554,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5564,7 +5731,7 @@
       <c r="C114">
         <v>0</v>
       </c>
-      <c r="G114" s="21" t="str">
+      <c r="G114" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_FS_D3.parm.</v>
       </c>
@@ -5585,7 +5752,7 @@
         <v>PARM_TypeDef STOP_FS_D3;</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5595,7 +5762,7 @@
       <c r="C115">
         <v>10</v>
       </c>
-      <c r="G115" s="21" t="str">
+      <c r="G115" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D1.Start_s.</v>
       </c>
@@ -5616,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5626,7 +5793,7 @@
       <c r="C116">
         <v>15</v>
       </c>
-      <c r="G116" s="21" t="str">
+      <c r="G116" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D1.Stop_s.</v>
       </c>
@@ -5647,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5657,7 +5824,7 @@
       <c r="C117">
         <v>1500</v>
       </c>
-      <c r="G117" s="21" t="str">
+      <c r="G117" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D1.parm.</v>
       </c>
@@ -5678,7 +5845,7 @@
         <v>PARM_TypeDef STOP_HS_D1;</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5688,7 +5855,7 @@
       <c r="C118">
         <v>50</v>
       </c>
-      <c r="G118" s="21" t="str">
+      <c r="G118" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D2.Start_s.</v>
       </c>
@@ -5709,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5719,7 +5886,7 @@
       <c r="C119">
         <v>55</v>
       </c>
-      <c r="G119" s="21" t="str">
+      <c r="G119" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D2.Stop_s.</v>
       </c>
@@ -5740,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5750,7 +5917,7 @@
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="G120" s="21" t="str">
+      <c r="G120" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D2.parm.</v>
       </c>
@@ -5771,7 +5938,7 @@
         <v>PARM_TypeDef STOP_HS_D2;</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5781,7 +5948,7 @@
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="G121" s="21" t="str">
+      <c r="G121" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D3.Start_s.</v>
       </c>
@@ -5802,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5812,7 +5979,7 @@
       <c r="C122">
         <v>0</v>
       </c>
-      <c r="G122" s="21" t="str">
+      <c r="G122" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D3.Stop_s.</v>
       </c>
@@ -5833,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5843,7 +6010,7 @@
       <c r="C123">
         <v>0</v>
       </c>
-      <c r="G123" s="21" t="str">
+      <c r="G123" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_HS_D3.parm.</v>
       </c>
@@ -5864,7 +6031,7 @@
         <v>PARM_TypeDef STOP_HS_D3;</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5874,7 +6041,7 @@
       <c r="C124">
         <v>60</v>
       </c>
-      <c r="G124" s="21" t="str">
+      <c r="G124" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_SW2OFF_Time.</v>
       </c>
@@ -5895,7 +6062,7 @@
         <v>uint16_t STOP_SW2OFF_Time;</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5905,7 +6072,7 @@
       <c r="C125">
         <v>70</v>
       </c>
-      <c r="G125" s="21" t="str">
+      <c r="G125" s="15" t="str">
         <f t="shared" si="6"/>
         <v>STOP_SW2OFF_KetiTemp.</v>
       </c>
@@ -5926,7 +6093,7 @@
         <v>uint16_t STOP_SW2OFF_KetiTemp;</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5937,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="4"/>
-      <c r="G126" s="21" t="str">
+      <c r="G126" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D1.Start_s.</v>
       </c>
@@ -5958,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5966,9 +6133,9 @@
         <v>276</v>
       </c>
       <c r="C127">
-        <v>20</v>
-      </c>
-      <c r="G127" s="21" t="str">
+        <v>10</v>
+      </c>
+      <c r="G127" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D1.Stop_s.</v>
       </c>
@@ -5989,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="4" customFormat="1">
+    <row r="128" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5997,11 +6164,11 @@
         <v>277</v>
       </c>
       <c r="C128">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D128"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="21" t="str">
+      <c r="F128" s="13"/>
+      <c r="G128" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D1.parm.</v>
       </c>
@@ -6022,7 +6189,7 @@
         <v>PARM_TypeDef WIND_FS_D1;</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6032,7 +6199,7 @@
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="G129" s="21" t="str">
+      <c r="G129" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D2.Start_s.</v>
       </c>
@@ -6053,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6063,7 +6230,7 @@
       <c r="C130">
         <v>0</v>
       </c>
-      <c r="G130" s="21" t="str">
+      <c r="G130" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D2.Stop_s.</v>
       </c>
@@ -6080,11 +6247,11 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" ref="K130:K139" si="10">IF(J130&lt;&gt;0,IF(J129&lt;&gt;0,"uint16_t "&amp;J130&amp;";","PARM_TypeDef "&amp;J130&amp;";"),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <f t="shared" ref="K130:K136" si="10">IF(J130&lt;&gt;0,IF(J129&lt;&gt;0,"uint16_t "&amp;J130&amp;";","PARM_TypeDef "&amp;J130&amp;";"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6094,7 +6261,7 @@
       <c r="C131">
         <v>0</v>
       </c>
-      <c r="G131" s="21" t="str">
+      <c r="G131" s="15" t="str">
         <f t="shared" si="6"/>
         <v>WIND_FS_D2.parm.</v>
       </c>
@@ -6115,7 +6282,7 @@
         <v>PARM_TypeDef WIND_FS_D2;</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6125,20 +6292,20 @@
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="G132" s="21" t="str">
-        <f t="shared" ref="G132:G152" si="11">B132&amp;"."</f>
+      <c r="G132" s="15" t="str">
+        <f t="shared" ref="G132:G136" si="11">B132&amp;"."</f>
         <v>WIND_FS_D3.Start_s.</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H152" si="12">FIND(".",G132)</f>
+        <f t="shared" ref="H132:H136" si="12">FIND(".",G132)</f>
         <v>11</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" ref="I132:I139" si="13">LEFT(B132,H132-1)</f>
+        <f t="shared" ref="I132:I136" si="13">LEFT(B132,H132-1)</f>
         <v>WIND_FS_D3</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J137" si="14">IF(I132=I133,,I132)</f>
+        <f t="shared" ref="J132:J135" si="14">IF(I132=I133,,I132)</f>
         <v>0</v>
       </c>
       <c r="K132">
@@ -6146,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6156,7 +6323,7 @@
       <c r="C133">
         <v>0</v>
       </c>
-      <c r="G133" s="21" t="str">
+      <c r="G133" s="15" t="str">
         <f t="shared" si="11"/>
         <v>WIND_FS_D3.Stop_s.</v>
       </c>
@@ -6177,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6187,7 +6354,7 @@
       <c r="C134">
         <v>0</v>
       </c>
-      <c r="G134" s="21" t="str">
+      <c r="G134" s="15" t="str">
         <f t="shared" si="11"/>
         <v>WIND_FS_D3.parm.</v>
       </c>
@@ -6208,7 +6375,7 @@
         <v>PARM_TypeDef WIND_FS_D3;</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6218,7 +6385,7 @@
       <c r="C135">
         <v>134</v>
       </c>
-      <c r="G135" s="21" t="str">
+      <c r="G135" s="15" t="str">
         <f t="shared" si="11"/>
         <v>PARM_LENGTH.</v>
       </c>
@@ -6239,17 +6406,20 @@
         <v>uint16_t PARM_LENGTH;</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>361</v>
       </c>
-      <c r="C136" s="22">
-        <v>0</v>
-      </c>
-      <c r="G136" s="21" t="str">
+      <c r="C136" s="16">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>25613</v>
+      </c>
+      <c r="G136" s="15" t="str">
         <f t="shared" si="11"/>
         <v>PARM_CRC.</v>
       </c>
@@ -6261,201 +6431,13 @@
         <f t="shared" si="13"/>
         <v>PARM_CRC</v>
       </c>
-      <c r="J136" t="str">
-        <f t="shared" si="14"/>
-        <v>PARM_CRC</v>
-      </c>
-      <c r="K136" t="str">
+      <c r="J136" t="e">
+        <f>IF(I136=#REF!,,I136)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K136" t="e">
         <f t="shared" si="10"/>
-        <v>uint16_t PARM_CRC;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="G137" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I137" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J137">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="G138" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I138" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="G139" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H139">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I139" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="G140" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="G141" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="G142" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H142">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="G143" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="G144" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H144">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="7:8">
-      <c r="G145" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H145">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="7:8">
-      <c r="G146" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H146">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="7:8">
-      <c r="G147" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H147">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="7:8">
-      <c r="G148" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H148">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="7:8">
-      <c r="G149" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H149">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="7:8">
-      <c r="G150" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H150">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="7:8">
-      <c r="G151" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="7:8">
-      <c r="G152" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>.</v>
-      </c>
-      <c r="H152">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -6473,23 +6455,23 @@
       <selection activeCell="J8" sqref="J8:K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -6497,7 +6479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -6505,7 +6487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6513,7 +6495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6525,7 +6507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6537,7 +6519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -6560,7 +6542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -6583,7 +6565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -6606,7 +6588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6629,7 +6611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -6652,7 +6634,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -6675,7 +6657,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -6698,7 +6680,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -6721,7 +6703,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -6744,7 +6726,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6767,7 +6749,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -6790,7 +6772,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -6813,7 +6795,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -6836,7 +6818,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -6859,7 +6841,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6882,7 +6864,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -6905,7 +6887,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -6928,7 +6910,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -6951,7 +6933,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -6974,7 +6956,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -6997,7 +6979,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -7020,7 +7002,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -7043,7 +7025,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -7066,7 +7048,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -7089,7 +7071,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -7112,7 +7094,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -7135,7 +7117,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -7158,7 +7140,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -7181,7 +7163,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +7186,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -7227,7 +7209,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -7250,7 +7232,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -7273,7 +7255,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -7296,7 +7278,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -7319,7 +7301,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -7342,7 +7324,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -7365,7 +7347,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -7388,7 +7370,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -7411,7 +7393,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -7434,7 +7416,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -7457,7 +7439,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -7480,7 +7462,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -7503,7 +7485,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -7526,7 +7508,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -7549,7 +7531,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -7572,7 +7554,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -7595,7 +7577,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -7618,7 +7600,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -7641,7 +7623,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -7664,7 +7646,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -7687,7 +7669,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -7710,7 +7692,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -7733,7 +7715,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -7756,7 +7738,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -7779,7 +7761,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -7802,7 +7784,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -7825,7 +7807,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -7848,7 +7830,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -7871,7 +7853,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -7894,7 +7876,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -7917,7 +7899,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -7940,7 +7922,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -7963,7 +7945,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -7986,7 +7968,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -8009,7 +7991,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -8032,7 +8014,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -8055,7 +8037,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -8078,7 +8060,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -8101,7 +8083,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -8124,7 +8106,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -8147,7 +8129,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -8170,7 +8152,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -8193,7 +8175,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -8216,7 +8198,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -8239,7 +8221,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -8262,7 +8244,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -8285,7 +8267,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -8308,7 +8290,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -8331,7 +8313,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -8354,7 +8336,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -8377,7 +8359,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -8400,7 +8382,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -8423,7 +8405,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -8446,7 +8428,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -8469,7 +8451,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -8492,7 +8474,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -8515,7 +8497,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -8538,7 +8520,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -8561,7 +8543,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -8584,7 +8566,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -8607,7 +8589,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -8630,7 +8612,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -8653,7 +8635,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -8676,7 +8658,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -8699,7 +8681,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -8722,7 +8704,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -8745,7 +8727,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -8768,7 +8750,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -8791,7 +8773,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -8814,7 +8796,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>195</v>
       </c>
@@ -8837,7 +8819,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -8860,7 +8842,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>199</v>
       </c>
@@ -8883,7 +8865,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -8906,7 +8888,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -8929,7 +8911,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -8952,7 +8934,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -8975,7 +8957,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -8998,7 +8980,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -9021,7 +9003,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -9044,7 +9026,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -9067,7 +9049,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -9090,7 +9072,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -9113,7 +9095,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -9136,7 +9118,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>212</v>
       </c>
@@ -9159,7 +9141,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>213</v>
       </c>
@@ -9182,7 +9164,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -9205,7 +9187,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -9228,7 +9210,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -9251,7 +9233,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>217</v>
       </c>
@@ -9274,7 +9256,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -9297,7 +9279,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -9320,7 +9302,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -9343,7 +9325,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -9366,7 +9348,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -9389,7 +9371,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -9412,7 +9394,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -9435,29 +9417,30 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <f ca="1">A1:A76</f>
         <v>0</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>A1&amp;","</f>
+        <f ca="1">A1&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C64" si="0">B1&amp;C2</f>
-        <v>0,5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8">
+        <f t="shared" ref="C1:C64" ca="1" si="0">B1&amp;C2</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -9466,11 +9449,11 @@
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
-        <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8">
+        <v>5,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="str">
@@ -9479,11 +9462,11 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8">
+        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -9492,11 +9475,11 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8">
+        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -9505,11 +9488,11 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8">
+        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1000</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -9518,11 +9501,11 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8">
+        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -9531,11 +9514,11 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8">
+        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>60</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -9544,11 +9527,11 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8">
+        <v>60,1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1500</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -9557,11 +9540,11 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="8">
+        <v>1500,90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>90</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -9570,11 +9553,11 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8">
+        <v>90,120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>120</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -9583,11 +9566,11 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8">
+        <v>120,2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2000</v>
       </c>
       <c r="B12" s="1" t="str">
@@ -9596,11 +9579,11 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8">
+        <v>2000,0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="str">
@@ -9609,11 +9592,11 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8">
+        <v>0,0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="str">
@@ -9622,11 +9605,11 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8">
+        <v>0,0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="str">
@@ -9635,11 +9618,11 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8">
+        <v>0,0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="str">
@@ -9648,11 +9631,11 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8">
+        <v>0,0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -9661,11 +9644,11 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8">
+        <v>0,0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="str">
@@ -9674,11 +9657,11 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8">
+        <v>0,4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="str">
@@ -9687,11 +9670,11 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8">
+        <v>4,4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="str">
@@ -9700,11 +9683,11 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8">
+        <v>4,8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="str">
@@ -9713,11 +9696,11 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8">
+        <v>8,500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>500</v>
       </c>
       <c r="B22" s="1" t="str">
@@ -9726,11 +9709,11 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8">
+        <v>500,8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="str">
@@ -9739,11 +9722,11 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8">
+        <v>8,12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
@@ -9752,11 +9735,11 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8">
+        <v>12,1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1400</v>
       </c>
       <c r="B25" s="1" t="str">
@@ -9765,11 +9748,11 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8">
+        <v>1400,0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="str">
@@ -9778,11 +9761,11 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8">
+        <v>0,0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="str">
@@ -9791,11 +9774,11 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8">
+        <v>0,0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="str">
@@ -9804,11 +9787,11 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8">
+        <v>0,0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="str">
@@ -9817,11 +9800,11 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8">
+        <v>0,0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="str">
@@ -9830,11 +9813,11 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8">
+        <v>0,0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="str">
@@ -9843,11 +9826,11 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8">
+        <v>0,0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="str">
@@ -9856,11 +9839,11 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8">
+        <v>0,0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="str">
@@ -9869,11 +9852,11 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8">
+        <v>0,0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="str">
@@ -9882,11 +9865,11 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8">
+        <v>0,60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="str">
@@ -9895,11 +9878,11 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8">
+        <v>60,60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>60</v>
       </c>
       <c r="B36" s="1" t="str">
@@ -9908,11 +9891,11 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8">
+        <v>60,65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>65</v>
       </c>
       <c r="B37" s="1" t="str">
@@ -9921,11 +9904,11 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8">
+        <v>65,7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="str">
@@ -9934,11 +9917,11 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="8">
+        <v>7,60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>60</v>
       </c>
       <c r="B39" s="1" t="str">
@@ -9947,11 +9930,11 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8">
+        <v>60,150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>150</v>
       </c>
       <c r="B40" s="1" t="str">
@@ -9960,11 +9943,11 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9">
+        <v>150,70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>70</v>
       </c>
       <c r="B41" s="1" t="str">
@@ -9973,11 +9956,11 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="10">
+        <v>70,90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>90</v>
       </c>
       <c r="B42" s="1" t="str">
@@ -9986,11 +9969,11 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="10">
+        <v>90,0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="str">
@@ -9999,11 +9982,11 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="10">
+        <v>0,10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="str">
@@ -10012,11 +9995,11 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8">
+        <v>10,1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>1000</v>
       </c>
       <c r="B45" s="1" t="str">
@@ -10025,11 +10008,11 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8">
+        <v>1000,60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>60</v>
       </c>
       <c r="B46" s="1" t="str">
@@ -10038,11 +10021,11 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8">
+        <v>60,70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>70</v>
       </c>
       <c r="B47" s="1" t="str">
@@ -10051,11 +10034,11 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="8">
+        <v>70,2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>2000</v>
       </c>
       <c r="B48" s="1" t="str">
@@ -10064,11 +10047,11 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="8">
+        <v>2000,0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="str">
@@ -10077,11 +10060,11 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="8">
+        <v>0,0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="str">
@@ -10090,11 +10073,11 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="8">
+        <v>0,0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="str">
@@ -10103,11 +10086,11 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8">
+        <v>0,0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="str">
@@ -10116,11 +10099,11 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="8">
+        <v>0,0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="str">
@@ -10129,11 +10112,11 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8">
+        <v>0,0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="str">
@@ -10142,11 +10125,11 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8">
+        <v>0,0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="str">
@@ -10155,11 +10138,11 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="8">
+        <v>0,0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="str">
@@ -10168,11 +10151,11 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="8">
+        <v>0,0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="str">
@@ -10181,11 +10164,11 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="8">
+        <v>0,1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="str">
@@ -10194,11 +10177,11 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="8">
+        <v>1,10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="str">
@@ -10207,11 +10190,11 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="8">
+        <v>10,1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>1000</v>
       </c>
       <c r="B60" s="1" t="str">
@@ -10220,11 +10203,11 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8">
+        <v>1000,50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>50</v>
       </c>
       <c r="B61" s="1" t="str">
@@ -10233,11 +10216,11 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="8">
+        <v>50,60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="str">
@@ -10246,11 +10229,11 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="8">
+        <v>60,1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>1500</v>
       </c>
       <c r="B63" s="1" t="str">
@@ -10259,11 +10242,11 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="8">
+        <v>1500,90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>90</v>
       </c>
       <c r="B64" s="1" t="str">
@@ -10272,11 +10255,11 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="8">
+        <v>90,120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>120</v>
       </c>
       <c r="B65" s="1" t="str">
@@ -10285,11 +10268,11 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ref="C65:C128" si="2">B65&amp;C66</f>
-        <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="8">
+        <v>120,2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>2000</v>
       </c>
       <c r="B66" s="1" t="str">
@@ -10298,11 +10281,11 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="8">
+        <v>2000,0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>0</v>
       </c>
       <c r="B67" s="1" t="str">
@@ -10311,11 +10294,11 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="8">
+        <v>0,0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="str">
@@ -10324,11 +10307,11 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="8">
+        <v>0,0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="str">
@@ -10337,11 +10320,11 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="8">
+        <v>0,0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="str">
@@ -10350,11 +10333,11 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="8">
+        <v>0,0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="str">
@@ -10363,11 +10346,11 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="8">
+        <v>0,0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="str">
@@ -10376,11 +10359,11 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
-        <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="8">
+        <v>0,50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>50</v>
       </c>
       <c r="B73" s="1" t="str">
@@ -10389,11 +10372,11 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
-        <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="8">
+        <v>50,55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>55</v>
       </c>
       <c r="B74" s="1" t="str">
@@ -10402,11 +10385,11 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
-        <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="8">
+        <v>55,1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>1500</v>
       </c>
       <c r="B75" s="1" t="str">
@@ -10415,11 +10398,11 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
-        <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="8">
+        <v>1500,110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>110</v>
       </c>
       <c r="B76" s="1" t="str">
@@ -10428,11 +10411,11 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
-        <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="8">
+        <v>110,115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>115</v>
       </c>
       <c r="B77" s="1" t="str">
@@ -10441,11 +10424,11 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
-        <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="8">
+        <v>115,0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="str">
@@ -10454,11 +10437,11 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="8">
+        <v>0,0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="str">
@@ -10467,11 +10450,11 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="8">
+        <v>0,0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="str">
@@ -10480,11 +10463,11 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="8">
+        <v>0,0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="str">
@@ -10493,11 +10476,11 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="8">
+        <v>0,0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="str">
@@ -10506,11 +10489,11 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="8">
+        <v>0,0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="str">
@@ -10519,11 +10502,11 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="8">
+        <v>0,0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="str">
@@ -10532,11 +10515,11 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="8">
+        <v>0,0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="str">
@@ -10545,11 +10528,11 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="8">
+        <v>0,0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="str">
@@ -10558,11 +10541,11 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="8">
+        <v>0,0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>0</v>
       </c>
       <c r="B87" s="1" t="str">
@@ -10571,11 +10554,11 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
-        <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="8">
+        <v>0,4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="str">
@@ -10584,11 +10567,11 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
-        <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="8">
+        <v>4,10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="str">
@@ -10597,11 +10580,11 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
-        <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="8">
+        <v>10,1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>1500</v>
       </c>
       <c r="B90" s="1" t="str">
@@ -10610,11 +10593,11 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
-        <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="8">
+        <v>1500,0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>0</v>
       </c>
       <c r="B91" s="1" t="str">
@@ -10623,11 +10606,11 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="8">
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>0</v>
       </c>
       <c r="B92" s="1" t="str">
@@ -10636,11 +10619,11 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="8">
+        <v>0,0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="str">
@@ -10649,11 +10632,11 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="8">
+        <v>0,0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>0</v>
       </c>
       <c r="B94" s="1" t="str">
@@ -10662,11 +10645,11 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="8">
+        <v>0,0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>0</v>
       </c>
       <c r="B95" s="1" t="str">
@@ -10675,11 +10658,11 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="8">
+        <v>0,0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>0</v>
       </c>
       <c r="B96" s="1" t="str">
@@ -10688,11 +10671,11 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="8">
+        <v>0,0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>0</v>
       </c>
       <c r="B97" s="1" t="str">
@@ -10701,11 +10684,11 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="8">
+        <v>0,0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="str">
@@ -10714,11 +10697,11 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="8">
+        <v>0,0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="str">
@@ -10727,11 +10710,11 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="8">
+        <v>0,0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="str">
@@ -10740,11 +10723,11 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="8">
+        <v>0,0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>0</v>
       </c>
       <c r="B101" s="1" t="str">
@@ -10753,11 +10736,11 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="8">
+        <v>0,0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="str">
@@ -10766,11 +10749,11 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="2"/>
-        <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="8">
+        <v>0,60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>60</v>
       </c>
       <c r="B103" s="1" t="str">
@@ -10779,11 +10762,11 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="2"/>
-        <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="8">
+        <v>60,65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>65</v>
       </c>
       <c r="B104" s="1" t="str">
@@ -10792,11 +10775,11 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="2"/>
-        <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11">
+        <v>65,0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="str">
@@ -10805,11 +10788,11 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="2"/>
-        <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="8">
+        <v>0,10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>10</v>
       </c>
       <c r="B106" s="1" t="str">
@@ -10818,11 +10801,11 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="2"/>
-        <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12">
+        <v>10,2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
         <v>2000</v>
       </c>
       <c r="B107" s="1" t="str">
@@ -10831,11 +10814,11 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="2"/>
-        <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="8">
+        <v>2000,55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>55</v>
       </c>
       <c r="B108" s="1" t="str">
@@ -10844,11 +10827,11 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="2"/>
-        <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="8">
+        <v>55,60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="str">
@@ -10857,11 +10840,11 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="2"/>
-        <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="8">
+        <v>60,1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>1500</v>
       </c>
       <c r="B110" s="1" t="str">
@@ -10870,11 +10853,11 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="2"/>
-        <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="8">
+        <v>1500,0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="str">
@@ -10883,11 +10866,11 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="8">
+        <v>0,0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>0</v>
       </c>
       <c r="B112" s="1" t="str">
@@ -10896,11 +10879,11 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8">
+        <v>0,0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="str">
@@ -10909,11 +10892,11 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="2"/>
-        <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="8">
+        <v>0,10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>10</v>
       </c>
       <c r="B114" s="1" t="str">
@@ -10922,11 +10905,11 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="2"/>
-        <v>10,15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="8">
+        <v>10,15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>15</v>
       </c>
       <c r="B115" s="1" t="str">
@@ -10935,11 +10918,11 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="2"/>
-        <v>15,1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8">
+        <v>15,1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>1500</v>
       </c>
       <c r="B116" s="1" t="str">
@@ -10948,11 +10931,11 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="2"/>
-        <v>1500,50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8">
+        <v>1500,50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>50</v>
       </c>
       <c r="B117" s="1" t="str">
@@ -10961,11 +10944,11 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="2"/>
-        <v>50,55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8">
+        <v>50,55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>55</v>
       </c>
       <c r="B118" s="1" t="str">
@@ -10974,11 +10957,11 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="2"/>
-        <v>55,0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="8">
+        <v>55,0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="str">
@@ -10987,11 +10970,11 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8">
+        <v>0,0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="str">
@@ -11000,11 +10983,11 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8">
+        <v>0,0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="str">
@@ -11013,11 +10996,11 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="2"/>
-        <v>0,0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8">
+        <v>0,0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>0</v>
       </c>
       <c r="B122" s="1" t="str">
@@ -11026,11 +11009,11 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="2"/>
-        <v>0,60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8">
+        <v>0,60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>60</v>
       </c>
       <c r="B123" s="1" t="str">
@@ -11039,11 +11022,11 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="2"/>
-        <v>60,70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8">
+        <v>60,70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>70</v>
       </c>
       <c r="B124" s="1" t="str">
@@ -11052,11 +11035,11 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="2"/>
-        <v>70,0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="11">
+        <v>70,0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>0</v>
       </c>
       <c r="B125" s="1" t="str">
@@ -11065,37 +11048,37 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="2"/>
-        <v>0,10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="8">
-        <v>10</v>
+        <v>0,20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>20</v>
       </c>
       <c r="B126" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>10,</v>
+        <v>20,</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="2"/>
-        <v>10,2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="8">
-        <v>2000</v>
+        <v>20,1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1300</v>
       </c>
       <c r="B127" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2000,</v>
+        <v>1300,</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="2"/>
-        <v>2000,0,0,0,0,0,0,</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="8">
+        <v>1300,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>0</v>
       </c>
       <c r="B128" s="1" t="str">
@@ -11107,8 +11090,8 @@
         <v>0,0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="8">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>0</v>
       </c>
       <c r="B129" s="1" t="str">
@@ -11120,8 +11103,8 @@
         <v>0,0,0,0,0,</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="8">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="str">
@@ -11133,8 +11116,8 @@
         <v>0,0,0,0,</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="8">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>0</v>
       </c>
       <c r="B131" s="1" t="str">
@@ -11146,8 +11129,8 @@
         <v>0,0,0,</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="8">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>0</v>
       </c>
       <c r="B132" s="1" t="str">
@@ -11159,8 +11142,8 @@
         <v>0,0,</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="8">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>0</v>
       </c>
       <c r="B133" s="1" t="str">
@@ -11177,4 +11160,1014 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"AAA"&amp;B1&amp;"="&amp;B1</f>
+        <v>AAApheatParm-&gt;st.HEAT_KT_START_TEMP;=pheatParm-&gt;st.HEAT_KT_START_TEMP;</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">"AAA"&amp;B2&amp;"="&amp;B2</f>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_KT_START_TEMP;=pheatParm-&gt;st.HEAT_KT_START_TEMP;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_KETI_RISE_TEMP;=pheatParm-&gt;st.HEAT_KETI_RISE_TEMP;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_EN_Time;=pheatParm-&gt;st.HEAT_FS_EN_Time;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_D1;=pheatParm-&gt;st.HEAT_FS_D1;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_D2;=pheatParm-&gt;st.HEAT_FS_D2;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_D3;=pheatParm-&gt;st.HEAT_FS_D3;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_D4;=pheatParm-&gt;st.HEAT_FS_D4;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_FS_D5;=pheatParm-&gt;st.HEAT_FS_D5;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_EN_Time;=pheatParm-&gt;st.HEAT_HS_EN_Time;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_D1;=pheatParm-&gt;st.HEAT_HS_D1;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_D2;=pheatParm-&gt;st.HEAT_HS_D2;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_D3;=pheatParm-&gt;st.HEAT_HS_D3;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_D4;=pheatParm-&gt;st.HEAT_HS_D4;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_HS_D5;=pheatParm-&gt;st.HEAT_HS_D5;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_YB_EN_Time;=pheatParm-&gt;st.HEAT_YB_EN_Time;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_YB_StaticHz;=pheatParm-&gt;st.HEAT_YB_StaticHz;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_YB_ADJ_Time;=pheatParm-&gt;st.HEAT_YB_ADJ_Time;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_YB_DynamicParm;=pheatParm-&gt;st.HEAT_YB_DynamicParm;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_KT_StartTime;=pheatParm-&gt;st.HEAT_KT_StartTime;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT_KT_JudgeTime;=pheatParm-&gt;st.HEAT_KT_JudgeTime;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_KT_DROPDOWN_START_HEAT;=pheatParm-&gt;st.HEAT2_KT_DROPDOWN_START_HEAT;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_START_HEAT_Time;=pheatParm-&gt;st.HEAT2_START_HEAT_Time;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_D1;=pheatParm-&gt;st.HEAT2_FS_D1;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_D2;=pheatParm-&gt;st.HEAT2_FS_D2;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_D3;=pheatParm-&gt;st.HEAT2_FS_D3;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_D4;=pheatParm-&gt;st.HEAT2_FS_D4;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_D5;=pheatParm-&gt;st.HEAT2_FS_D5;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_OFST_D1;=pheatParm-&gt;st.HEAT2_FS_OFST_D1;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_OFST_D2;=pheatParm-&gt;st.HEAT2_FS_OFST_D2;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="1">"AAA"&amp;B66&amp;"="&amp;B66</f>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_OFST_D3;=pheatParm-&gt;st.HEAT2_FS_OFST_D3;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_OFST_D4;=pheatParm-&gt;st.HEAT2_FS_OFST_D4;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>393</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_FS_OFST_D5;=pheatParm-&gt;st.HEAT2_FS_OFST_D5;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>394</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_D1;=pheatParm-&gt;st.HEAT2_HS_D1;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_D2;=pheatParm-&gt;st.HEAT2_HS_D2;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_D3;=pheatParm-&gt;st.HEAT2_HS_D3;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_D4;=pheatParm-&gt;st.HEAT2_HS_D4;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_D5;=pheatParm-&gt;st.HEAT2_HS_D5;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_OFST_D1;=pheatParm-&gt;st.HEAT2_HS_OFST_D1;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_OFST_D2;=pheatParm-&gt;st.HEAT2_HS_OFST_D2;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_OFST_D3;=pheatParm-&gt;st.HEAT2_HS_OFST_D3;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>402</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_OFST_D4;=pheatParm-&gt;st.HEAT2_HS_OFST_D4;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_HS_OFST_D5;=pheatParm-&gt;st.HEAT2_HS_OFST_D5;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_YB_EN_OFST_Time;=pheatParm-&gt;st.HEAT2_YB_EN_OFST_Time;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>405</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.HEAT2_YB_ADJ_OFST_Time;=pheatParm-&gt;st.HEAT2_YB_ADJ_OFST_Time;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_FS_D1;=pheatParm-&gt;st.STOP_FS_D1;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>407</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_FS_D2;=pheatParm-&gt;st.STOP_FS_D2;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_FS_D3;=pheatParm-&gt;st.STOP_FS_D3;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_HS_D1;=pheatParm-&gt;st.STOP_HS_D1;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>410</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_HS_D2;=pheatParm-&gt;st.STOP_HS_D2;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>411</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_HS_D3;=pheatParm-&gt;st.STOP_HS_D3;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>412</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_SW2OFF_Time;=pheatParm-&gt;st.STOP_SW2OFF_Time;</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>413</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.STOP_SW2OFF_KetiTemp;=pheatParm-&gt;st.STOP_SW2OFF_KetiTemp;</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>414</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>AAApheatParm-&gt;st.WIND_FS_D1;=pheatParm-&gt;st.WIND_FS_D1;</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>415</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D136" si="2">"AAA"&amp;B130&amp;"="&amp;B130</f>
+        <v>AAApheatParm-&gt;st.WIND_FS_D2;=pheatParm-&gt;st.WIND_FS_D2;</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>AAApheatParm-&gt;st.WIND_FS_D3;=pheatParm-&gt;st.WIND_FS_D3;</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>AAA=</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>417</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>AAApheatParm-&gt;st.PARM_LENGTH;=pheatParm-&gt;st.PARM_LENGTH;</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>418</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>AAApheatParm-&gt;st.PARM_CRC;=pheatParm-&gt;st.PARM_CRC;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>